--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57004D1B-383E-4B3B-99A9-6B52C88F61C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA7A68-E227-4259-AFBB-19E297D582CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25305" yWindow="-14655" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,6 +120,14 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限(0.001)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限(0.001)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,12 +267,9 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
@@ -280,12 +277,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>上海传播指数级上升被打断</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600" b="0" u="none">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="0" u="none">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
               <a:ea typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
@@ -297,8 +300,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13338243887302784"/>
-          <c:y val="1.8301711642362457E-2"/>
+          <c:x val="0.24386990318572185"/>
+          <c:y val="3.3553138010997838E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -328,12 +331,9 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:latin typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
               <a:ea typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$29</c:f>
+              <c:f>拟合!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -564,16 +564,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$29</c:f>
+              <c:f>拟合!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -657,6 +660,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <f>SUM(C$2:C2)</f>
@@ -1839,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2923,7 +2929,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J6" sqref="J6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2937,22 +2943,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,16 +2969,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <f>6.4863*EXP(0.2309*A2)</f>
-        <v>8.1710078431988276</v>
+        <f>6.4282*EXP(0.2318*A2)</f>
+        <v>8.105108657009886</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D29" si="0">B2-C2</f>
-        <v>-6.1710078431988276</v>
+        <f t="shared" ref="D2:D30" si="0">B2-C2</f>
+        <v>-6.105108657009886</v>
       </c>
       <c r="E2" s="6">
         <f>D2^2</f>
-        <v>38.081337800821444</v>
+        <v>37.272351713897052</v>
       </c>
       <c r="F2" s="4">
         <f>A2^2</f>
@@ -2983,14 +2989,14 @@
       </c>
       <c r="K2">
         <f>AVERAGE(A:A)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
       <c r="M2">
         <f>SUM(E:E)</f>
-        <v>323081.00834164314</v>
+        <v>682280.00072061655</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,16 +3007,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C29" si="1">6.4863*EXP(0.2309*A3)</f>
-        <v>10.293290346363378</v>
+        <f t="shared" ref="C3:C30" si="1">6.4282*EXP(0.2318*A3)</f>
+        <v>10.219468333582743</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>-2.2932903463633778</v>
+        <v>-2.2194683335827428</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E29" si="2">D3^2</f>
-        <v>5.259180612723461</v>
+        <v>4.9260396837765574</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F29" si="3">A3^2</f>
@@ -3020,14 +3026,14 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
       </c>
       <c r="M3">
         <f>SUM(F:F)</f>
-        <v>7714</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,15 +3045,15 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>12.966800202343084</v>
+        <v>12.885395796733123</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>3.0331997976569163</v>
+        <v>3.114604203266877</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="2"/>
-        <v>9.2003010125059586</v>
+        <v>9.7007593430076984</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="3"/>
@@ -3063,15 +3069,15 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>16.334709488388988</v>
+        <v>16.24677717263004</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>2.6652905116110119</v>
+        <v>2.7532228273699602</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
-        <v>7.1037735112836895</v>
+        <v>7.5802359371510377</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="3"/>
@@ -3082,14 +3088,14 @@
       </c>
       <c r="K5">
         <f>SQRT($M$2/(COUNT(A:A)-1)*(1/COUNT(A:A)+($K$3-$K$2)^2/$M$3))</f>
-        <v>27.449878096921605</v>
+        <v>38.485219671321524</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="5">
-        <f>6.4863*EXP(0.2309*K3)</f>
-        <v>5248.9968455208464</v>
+        <f>6.4282*EXP(0.2318*K3)</f>
+        <v>6732.4510992177611</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,33 +3107,33 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>20.577376832092376</v>
+        <v>20.485033805792341</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>7.4226231679076236</v>
+        <v>7.5149661942076591</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="2"/>
-        <v>55.095334692759003</v>
+        <v>56.474716900083948</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="5">
-        <f>M5-TINV(0.005,COUNT(A:A))*K5</f>
-        <v>5165.3590220756378</v>
+        <f>M5-TINV(0.001,COUNT(A:A))*K5</f>
+        <v>6591.6180931772624</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M6" s="5">
-        <f>M5+TINV(0.005,COUNT(A:A))*K5</f>
-        <v>5332.634668966055</v>
+        <f>M5+TINV(0.001,COUNT(A:A))*K5</f>
+        <v>6873.2841052582598</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3139,15 +3145,15 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>25.922005995326248</v>
+        <v>25.828913978791519</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>22.077994004673752</v>
+        <v>22.171086021208481</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="2"/>
-        <v>487.4378192704101</v>
+        <v>491.55705535982611</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="3"/>
@@ -3163,15 +3169,15 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>32.654813113679268</v>
+        <v>32.56683897368886</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>22.345186886320732</v>
+        <v>22.43316102631114</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="2"/>
-        <v>499.30737698460001</v>
+        <v>503.24671363240509</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="3"/>
@@ -3187,15 +3193,15 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>41.136354172650854</v>
+        <v>41.062469820026216</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>23.863645827349146</v>
+        <v>23.937530179973784</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="2"/>
-        <v>569.47359217315829</v>
+        <v>573.00535111715578</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="3"/>
@@ -3211,15 +3217,15 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="1"/>
-        <v>51.820833539203413</v>
+        <v>51.774334901916795</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>28.179166460796587</v>
+        <v>28.225665098083205</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="2"/>
-        <v>794.06542242528326</v>
+        <v>796.68817022915243</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
@@ -3235,15 +3241,15 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="1"/>
-        <v>65.280427561156912</v>
+        <v>65.280577770519727</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>9.7195724388430875</v>
+        <v>9.7194222294802728</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="2"/>
-        <v>94.470088393918161</v>
+        <v>94.467168474915283</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
@@ -3259,15 +3265,15 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>82.235925814344995</v>
+        <v>82.310160857230116</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0.76407418565500507</v>
+        <v>0.68983914276988401</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="2"/>
-        <v>0.58380936118435911</v>
+        <v>0.47587804289748842</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
@@ -3283,15 +3289,15 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="1"/>
-        <v>103.5953309007801</v>
+        <v>103.78220922245913</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>-38.595330900780098</v>
+        <v>-38.78220922245913</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="2"/>
-        <v>1489.599567340711</v>
+        <v>1504.059752174594</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
@@ -3307,15 +3313,15 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="1"/>
-        <v>130.50248389822431</v>
+        <v>130.85561781098357</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>38.497516101775688</v>
+        <v>38.144382189016426</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="2"/>
-        <v>1482.0587460064783</v>
+        <v>1454.9938925817535</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="3"/>
@@ -3331,15 +3337,15 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="1"/>
-        <v>164.39831945628777</v>
+        <v>164.99159962947323</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>-25.398319456287766</v>
+        <v>-25.991599629473228</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="2"/>
-        <v>645.07463120364571</v>
+        <v>675.56325129883282</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="3"/>
@@ -3355,15 +3361,15 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="1"/>
-        <v>207.09803087831801</v>
+        <v>208.03255071260273</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>-5.0980308783180135</v>
+        <v>-6.0325507126027276</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="2"/>
-        <v>25.989918836283938</v>
+        <v>36.391668100123674</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="3"/>
@@ -3379,15 +3385,15 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="1"/>
-        <v>260.88827754155216</v>
+        <v>262.30148839808402</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>-102.88827754155216</v>
+        <v>-104.30148839808402</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="2"/>
-        <v>10585.997655467467</v>
+        <v>10878.800482055654</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="3"/>
@@ -3403,15 +3409,15 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="1"/>
-        <v>328.64964031738526</v>
+        <v>330.72742981890548</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>-68.649640317385263</v>
+        <v>-70.727429818905478</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
-        <v>4712.7731157063681</v>
+        <v>5002.3693287881997</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="3"/>
@@ -3427,15 +3433,15 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="1"/>
-        <v>414.0108827371273</v>
+        <v>417.00347757316814</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>-40.010882737127304</v>
+        <v>-43.003477573168141</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
-        <v>1600.8707374041517</v>
+        <v>1849.2990833859753</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="3"/>
@@ -3451,15 +3457,15 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="1"/>
-        <v>521.54327891320759</v>
+        <v>525.78614481215811</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>-12.543278913207587</v>
+        <v>-16.786144812158113</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
-        <v>157.33384589451811</v>
+        <v>281.77465765474273</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="3"/>
@@ -3475,15 +3481,15 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="1"/>
-        <v>657.00541488482713</v>
+        <v>662.94667777182951</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>100.99458511517287</v>
+        <v>95.053322228170487</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="2"/>
-        <v>10199.906222585896</v>
+        <v>9035.1340666124088</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="3"/>
@@ -3499,15 +3505,15 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="1"/>
-        <v>827.65157301512716</v>
+        <v>835.88794019233944</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>68.348426984872845</v>
+        <v>60.112059807660557</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="2"/>
-        <v>4671.5074713064942</v>
+        <v>3613.4597343197597</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="3"/>
@@ -3523,15 +3529,15 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="1"/>
-        <v>1042.6202140731159</v>
+        <v>1053.9439625934315</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>-61.620214073115903</v>
+        <v>-72.943962593431479</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="2"/>
-        <v>3797.0507824166311</v>
+        <v>5320.8216788319305</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="3"/>
@@ -3547,15 +3553,15 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="1"/>
-        <v>1313.4233610331119</v>
+        <v>1328.8837209824403</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>-330.42336103311186</v>
+        <v>-345.88372098244031</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="2"/>
-        <v>109179.59751641819</v>
+        <v>119635.54844065862</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="3"/>
@@ -3571,15 +3577,15 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="1"/>
-        <v>1654.5630921237262</v>
+        <v>1675.5463350695809</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>-45.563092123726165</v>
+        <v>-66.546335069580891</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="2"/>
-        <v>2075.9953638751572</v>
+        <v>4428.4147111929315</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="3"/>
@@ -3595,15 +3601,15 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="1"/>
-        <v>2084.3081576261156</v>
+        <v>2112.6419690727803</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>184.69184237388436</v>
+        <v>156.35803092721972</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="2"/>
-        <v>34111.076639459745</v>
+        <v>24447.833835437395</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="3"/>
@@ -3619,15 +3625,15 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="1"/>
-        <v>2625.6723098848797</v>
+        <v>2663.761661537319</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>50.327690115120276</v>
+        <v>12.238338462680986</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="2"/>
-        <v>2532.8763923235751</v>
+        <v>149.7769283271368</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="3"/>
@@ -3643,18 +3649,18 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="1"/>
-        <v>3307.64673816187</v>
+        <v>3358.6505869663629</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>192.35326183813004</v>
+        <f t="shared" ref="D28:D30" si="4">B28-C28</f>
+        <v>141.34941303363712</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="2"/>
-        <v>36999.77733976821</v>
+        <f t="shared" ref="E28:E30" si="5">D28^2</f>
+        <v>19979.656564953744</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F28:F30" si="6">A28^2</f>
         <v>729</v>
       </c>
     </row>
@@ -3667,24 +3673,44 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="1"/>
-        <v>4166.7526078121027</v>
+        <v>4234.8134700681985</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>310.24739218789728</v>
+        <f t="shared" si="4"/>
+        <v>242.18652993180149</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="2"/>
-        <v>96253.444359390938</v>
+        <f t="shared" si="5"/>
+        <v>58654.315280407376</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5982</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="1"/>
+        <v>5339.5388004529759</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="4"/>
+        <v>642.46119954702408</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="5"/>
+        <v>412756.39292340109</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="6"/>
+        <v>841</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA7A68-E227-4259-AFBB-19E297D582CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06335DF4-BDBE-4EB5-80A8-B0AED6D97334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25305" yWindow="-14655" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -1437,15 +1437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38660</xdr:rowOff>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638734</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67233</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1770,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2896,7 +2896,7 @@
         <v>0.3361626088898817</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="10">SUM(C17:C30)</f>
+        <f t="shared" ref="G30:G31" si="10">SUM(C17:C30)</f>
         <v>737</v>
       </c>
       <c r="H30">
@@ -2908,8 +2908,84 @@
         <v>25432</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30" si="11">I30/I29-1</f>
+        <f t="shared" ref="J30:J31" si="11">I30/I29-1</f>
         <v>0.29411764705882359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>355</v>
+      </c>
+      <c r="D31">
+        <v>5298</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="12">D31+C31</f>
+        <v>5653</v>
+      </c>
+      <c r="F31" s="2">
+        <f>E31/E30-1</f>
+        <v>-5.4998328318288214E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>1084</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="13">SUM(D18:D31)</f>
+        <v>29843</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="14">SUM(E18:E31)</f>
+        <v>30927</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21606637307329346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>358</v>
+      </c>
+      <c r="D32">
+        <v>4144</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32" si="15">D32+C32</f>
+        <v>4502</v>
+      </c>
+      <c r="F32" s="2">
+        <f>E32/E31-1</f>
+        <v>-0.20360870334335746</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="16">SUM(C19:C32)</f>
+        <v>1385</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32" si="17">SUM(D19:D32)</f>
+        <v>33784</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32" si="18">SUM(E19:E32)</f>
+        <v>35169</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" ref="J32" si="19">I32/I31-1</f>
+        <v>0.13716170336599087</v>
       </c>
     </row>
   </sheetData>
@@ -2928,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6801B-7AD5-4C2F-AF9E-C6AA0298FF88}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:M6"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2973,7 +3049,7 @@
         <v>8.105108657009886</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D30" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D27" si="0">B2-C2</f>
         <v>-6.105108657009886</v>
       </c>
       <c r="E2" s="6">
@@ -3015,11 +3091,11 @@
         <v>-2.2194683335827428</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E29" si="2">D3^2</f>
+        <f t="shared" ref="E3:E27" si="2">D3^2</f>
         <v>4.9260396837765574</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F29" si="3">A3^2</f>
+        <f t="shared" ref="F3:F27" si="3">A3^2</f>
         <v>4</v>
       </c>
       <c r="J3" t="s">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06335DF4-BDBE-4EB5-80A8-B0AED6D97334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864B120-7FBF-4816-A640-14E2C9C19151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -1770,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
         <v>4144</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="15">D32+C32</f>
+        <f t="shared" ref="E32:E33" si="15">D32+C32</f>
         <v>4502</v>
       </c>
       <c r="F32" s="2">
@@ -2972,20 +2972,82 @@
         <v>-0.20360870334335746</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32" si="16">SUM(C19:C32)</f>
+        <f t="shared" ref="G32:G33" si="16">SUM(C19:C32)</f>
         <v>1385</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="17">SUM(D19:D32)</f>
+        <f t="shared" ref="H32:H33" si="17">SUM(D19:D32)</f>
         <v>33784</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32" si="18">SUM(E19:E32)</f>
+        <f t="shared" ref="I32:I33" si="18">SUM(E19:E32)</f>
         <v>35169</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" ref="J32" si="19">I32/I31-1</f>
+        <f t="shared" ref="J32:J33" si="19">I32/I31-1</f>
         <v>0.13716170336599087</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>260</v>
+      </c>
+      <c r="D33">
+        <v>6051</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="15"/>
+        <v>6311</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33" si="20">E33/E32-1</f>
+        <v>0.40182141270546423</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="16"/>
+        <v>1637</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="17"/>
+        <v>39469</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="18"/>
+        <v>41106</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="19"/>
+        <v>0.16881344365776685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B36" s="4">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864B120-7FBF-4816-A640-14E2C9C19151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196FF9D0-9BCA-4BBC-BF90-51CC5E15E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="7125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$30</c:f>
+              <c:f>拟合!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -567,16 +567,28 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$30</c:f>
+              <c:f>拟合!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -663,6 +675,18 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,7 +1797,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2988,7 @@
         <v>4144</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E33" si="15">D32+C32</f>
+        <f t="shared" ref="E32:E34" si="15">D32+C32</f>
         <v>4502</v>
       </c>
       <c r="F32" s="2">
@@ -2972,7 +2996,7 @@
         <v>-0.20360870334335746</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G33" si="16">SUM(C19:C32)</f>
+        <f t="shared" ref="G32:G34" si="16">SUM(C19:C32)</f>
         <v>1385</v>
       </c>
       <c r="H32">
@@ -2980,11 +3004,11 @@
         <v>33784</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I33" si="18">SUM(E19:E32)</f>
+        <f t="shared" ref="I32:I34" si="18">SUM(E19:E32)</f>
         <v>35169</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" ref="J32:J33" si="19">I32/I31-1</f>
+        <f t="shared" ref="J32:J34" si="19">I32/I31-1</f>
         <v>0.13716170336599087</v>
       </c>
     </row>
@@ -3032,6 +3056,36 @@
       </c>
       <c r="B34" s="4">
         <v>33</v>
+      </c>
+      <c r="C34">
+        <v>438</v>
+      </c>
+      <c r="D34">
+        <v>7788</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="15"/>
+        <v>8226</v>
+      </c>
+      <c r="F34" s="2">
+        <f>E34/E33-1</f>
+        <v>0.30343844081762006</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="16"/>
+        <v>2058</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34" si="21">SUM(D21:D34)</f>
+        <v>46765</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="18"/>
+        <v>48823</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="19"/>
+        <v>0.18773415073225319</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196FF9D0-9BCA-4BBC-BF90-51CC5E15E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87728922-7DB9-4D6A-B10D-364E2B028DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -1797,7 +1797,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2988,7 +2988,7 @@
         <v>4144</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E34" si="15">D32+C32</f>
+        <f t="shared" ref="E32:E35" si="15">D32+C32</f>
         <v>4502</v>
       </c>
       <c r="F32" s="2">
@@ -3094,6 +3094,36 @@
       </c>
       <c r="B35" s="4">
         <v>34</v>
+      </c>
+      <c r="C35">
+        <v>425</v>
+      </c>
+      <c r="D35">
+        <v>8581</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>9006</v>
+      </c>
+      <c r="F35" s="2">
+        <f>E35/E34-1</f>
+        <v>9.4821298322392389E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35" si="22">SUM(C22:C35)</f>
+        <v>2459</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35" si="23">SUM(D22:D35)</f>
+        <v>54612</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35" si="24">SUM(E22:E35)</f>
+        <v>57071</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" ref="J35" si="25">I35/I34-1</f>
+        <v>0.16893677160354748</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87728922-7DB9-4D6A-B10D-364E2B028DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0403B7F-0AA9-4F1F-98BA-0FE039A9A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="13320" yWindow="-15045" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$34</c:f>
+              <c:f>拟合!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -579,16 +579,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$34</c:f>
+              <c:f>拟合!$E$2:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -687,6 +693,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8226</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2988,7 +3000,7 @@
         <v>4144</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E35" si="15">D32+C32</f>
+        <f t="shared" ref="E32:E36" si="15">D32+C32</f>
         <v>4502</v>
       </c>
       <c r="F32" s="2">
@@ -3132,6 +3144,36 @@
       </c>
       <c r="B36" s="4">
         <v>35</v>
+      </c>
+      <c r="C36">
+        <v>268</v>
+      </c>
+      <c r="D36">
+        <v>13086</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="26">D36+C36</f>
+        <v>13354</v>
+      </c>
+      <c r="F36" s="2">
+        <f>E36/E35-1</f>
+        <v>0.48278925161003783</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36" si="27">SUM(C23:C36)</f>
+        <v>2696</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36" si="28">SUM(D23:D36)</f>
+        <v>66833</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36" si="29">SUM(E23:E36)</f>
+        <v>69529</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ref="J36" si="30">I36/I35-1</f>
+        <v>0.21828949904504924</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0403B7F-0AA9-4F1F-98BA-0FE039A9A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22729E-1D72-4C4F-844C-A0E3991926FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="-15045" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$36</c:f>
+              <c:f>拟合!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -585,16 +585,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$36</c:f>
+              <c:f>拟合!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -699,6 +705,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>13354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17077</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3000,7 +3012,7 @@
         <v>4144</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E36" si="15">D32+C32</f>
+        <f t="shared" ref="E32:E35" si="15">D32+C32</f>
         <v>4502</v>
       </c>
       <c r="F32" s="2">
@@ -3152,7 +3164,7 @@
         <v>13086</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="26">D36+C36</f>
+        <f t="shared" ref="E36:E37" si="26">D36+C36</f>
         <v>13354</v>
       </c>
       <c r="F36" s="2">
@@ -3160,20 +3172,96 @@
         <v>0.48278925161003783</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36" si="27">SUM(C23:C36)</f>
+        <f t="shared" ref="G36:G37" si="27">SUM(C23:C36)</f>
         <v>2696</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36" si="28">SUM(D23:D36)</f>
+        <f t="shared" ref="H36:H37" si="28">SUM(D23:D36)</f>
         <v>66833</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36" si="29">SUM(E23:E36)</f>
+        <f t="shared" ref="I36:I37" si="29">SUM(E23:E36)</f>
         <v>69529</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" ref="J36" si="30">I36/I35-1</f>
+        <f t="shared" ref="J36:J37" si="30">I36/I35-1</f>
         <v>0.21828949904504924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>311</v>
+      </c>
+      <c r="D37">
+        <v>16766</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="26"/>
+        <v>17077</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ref="F37" si="31">E37/E36-1</f>
+        <v>0.2787928710498726</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="27"/>
+        <v>3003</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="28"/>
+        <v>82622</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="29"/>
+        <v>85625</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="30"/>
+        <v>0.23150052496080775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>322</v>
+      </c>
+      <c r="D38">
+        <v>19660</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="32">D38+C38</f>
+        <v>19982</v>
+      </c>
+      <c r="F38" s="2">
+        <f>E38/E37-1</f>
+        <v>0.17011184634303445</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="33">SUM(C25:C38)</f>
+        <v>3321</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38" si="34">SUM(D25:D38)</f>
+        <v>101303</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38" si="35">SUM(E25:E38)</f>
+        <v>104624</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" ref="J38" si="36">I38/I37-1</f>
+        <v>0.22188613138686142</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22729E-1D72-4C4F-844C-A0E3991926FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF48F1-26DF-439B-8252-42AB6A27430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$38</c:f>
+              <c:f>拟合!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -591,16 +591,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$38</c:f>
+              <c:f>拟合!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -711,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,15 +1491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>83484</xdr:rowOff>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>94690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>67233</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661145</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1818,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3240,7 +3246,7 @@
         <v>19660</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="32">D38+C38</f>
+        <f t="shared" ref="E38:E39" si="32">D38+C38</f>
         <v>19982</v>
       </c>
       <c r="F38" s="2">
@@ -3248,20 +3254,58 @@
         <v>0.17011184634303445</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38" si="33">SUM(C25:C38)</f>
+        <f t="shared" ref="G38:G39" si="33">SUM(C25:C38)</f>
         <v>3321</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38" si="34">SUM(D25:D38)</f>
+        <f t="shared" ref="H38:H39" si="34">SUM(D25:D38)</f>
         <v>101303</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38" si="35">SUM(E25:E38)</f>
+        <f t="shared" ref="I38:I39" si="35">SUM(E25:E38)</f>
         <v>104624</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" ref="J38" si="36">I38/I37-1</f>
+        <f t="shared" ref="J38:J39" si="36">I38/I37-1</f>
         <v>0.22188613138686142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>824</v>
+      </c>
+      <c r="D39">
+        <v>20398</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="32"/>
+        <v>21222</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" ref="F39" si="37">E39/E38-1</f>
+        <v>6.2055850265238632E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="33"/>
+        <v>4116</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="34"/>
+        <v>120121</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="35"/>
+        <v>124237</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="36"/>
+        <v>0.18746176785441193</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF48F1-26DF-439B-8252-42AB6A27430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED70210-B395-4843-AD5D-DC5C65419AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="0" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$39</c:f>
+              <c:f>拟合!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -594,16 +594,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$39</c:f>
+              <c:f>拟合!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -717,6 +723,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>21222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3306,6 +3318,82 @@
       <c r="J39" s="2">
         <f t="shared" si="36"/>
         <v>0.18746176785441193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>1015</v>
+      </c>
+      <c r="D40">
+        <v>22609</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E41" si="38">D40+C40</f>
+        <v>23624</v>
+      </c>
+      <c r="F40" s="2">
+        <f>E40/E39-1</f>
+        <v>0.11318443125058897</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G41" si="39">SUM(C27:C40)</f>
+        <v>5093</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H41" si="40">SUM(D27:D40)</f>
+        <v>140499</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I41" si="41">SUM(E27:E40)</f>
+        <v>145592</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" ref="J40:J41" si="42">I40/I39-1</f>
+        <v>0.1718892117485129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1006</v>
+      </c>
+      <c r="D41">
+        <v>23937</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="38"/>
+        <v>24943</v>
+      </c>
+      <c r="F41" s="2">
+        <f>E41/E40-1</f>
+        <v>5.5833051134439593E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="39"/>
+        <v>6054</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="40"/>
+        <v>161805</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="41"/>
+        <v>167859</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="42"/>
+        <v>0.1529410956645969</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED70210-B395-4843-AD5D-DC5C65419AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B8305-8748-416D-B4DA-37530A8D43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -1836,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3394,6 +3394,44 @@
       <c r="J41" s="2">
         <f t="shared" si="42"/>
         <v>0.1529410956645969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>914</v>
+      </c>
+      <c r="D42">
+        <v>25173</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="43">D42+C42</f>
+        <v>26087</v>
+      </c>
+      <c r="F42" s="2">
+        <f>E42/E41-1</f>
+        <v>4.5864571222387074E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42" si="44">SUM(C29:C42)</f>
+        <v>6918</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42" si="45">SUM(D29:D42)</f>
+        <v>183528</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="46">SUM(E29:E42)</f>
+        <v>190446</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" ref="J42" si="47">I42/I41-1</f>
+        <v>0.13455936232194876</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B8305-8748-416D-B4DA-37530A8D43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5629DBF8-2D02-4B42-BABF-B6C3BFC8BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$41</c:f>
+              <c:f>拟合!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -600,16 +600,25 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$41</c:f>
+              <c:f>拟合!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -729,6 +738,15 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>24943</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23342</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3410,7 +3428,7 @@
         <v>25173</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42" si="43">D42+C42</f>
+        <f t="shared" ref="E42:E43" si="43">D42+C42</f>
         <v>26087</v>
       </c>
       <c r="F42" s="2">
@@ -3418,20 +3436,96 @@
         <v>4.5864571222387074E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42" si="44">SUM(C29:C42)</f>
+        <f t="shared" ref="G42:G43" si="44">SUM(C29:C42)</f>
         <v>6918</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42" si="45">SUM(D29:D42)</f>
+        <f t="shared" ref="H42:H43" si="45">SUM(D29:D42)</f>
         <v>183528</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42" si="46">SUM(E29:E42)</f>
+        <f t="shared" ref="I42:I43" si="46">SUM(E29:E42)</f>
         <v>190446</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" ref="J42" si="47">I42/I41-1</f>
+        <f t="shared" ref="J42:J43" si="47">I42/I41-1</f>
         <v>0.13455936232194876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>994</v>
+      </c>
+      <c r="D43">
+        <v>22348</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="43"/>
+        <v>23342</v>
+      </c>
+      <c r="F43" s="2">
+        <f>E43/E42-1</f>
+        <v>-0.10522482462529226</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="44"/>
+        <v>7816</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="45"/>
+        <v>201495</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="46"/>
+        <v>209311</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="47"/>
+        <v>9.9056950526658527E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B44" s="4">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>1189</v>
+      </c>
+      <c r="D44">
+        <v>25141</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44" si="48">D44+C44</f>
+        <v>26330</v>
+      </c>
+      <c r="F44" s="2">
+        <f>E44/E43-1</f>
+        <v>0.12800959643560961</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="49">SUM(C31:C44)</f>
+        <v>8679</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="50">SUM(D31:D44)</f>
+        <v>220980</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44" si="51">SUM(E31:E44)</f>
+        <v>229659</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" ref="J44" si="52">I44/I43-1</f>
+        <v>9.7214193233991608E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5629DBF8-2D02-4B42-BABF-B6C3BFC8BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37DA72-5A48-4389-A918-E51AFFADF0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$44</c:f>
+              <c:f>拟合!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -609,16 +609,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$44</c:f>
+              <c:f>拟合!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -747,6 +750,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>26330</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3504,7 +3510,7 @@
         <v>25141</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44" si="48">D44+C44</f>
+        <f t="shared" ref="E44:E45" si="48">D44+C44</f>
         <v>26330</v>
       </c>
       <c r="F44" s="2">
@@ -3512,20 +3518,58 @@
         <v>0.12800959643560961</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44" si="49">SUM(C31:C44)</f>
+        <f t="shared" ref="G44:G45" si="49">SUM(C31:C44)</f>
         <v>8679</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44" si="50">SUM(D31:D44)</f>
+        <f t="shared" ref="H44:H45" si="50">SUM(D31:D44)</f>
         <v>220980</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44" si="51">SUM(E31:E44)</f>
+        <f t="shared" ref="I44:I45" si="51">SUM(E31:E44)</f>
         <v>229659</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44" si="52">I44/I43-1</f>
+        <f t="shared" ref="J44:J45" si="52">I44/I43-1</f>
         <v>9.7214193233991608E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>2573</v>
+      </c>
+      <c r="D45">
+        <v>25146</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="48"/>
+        <v>27719</v>
+      </c>
+      <c r="F45" s="2">
+        <f>E45/E44-1</f>
+        <v>5.2753513102924421E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="49"/>
+        <v>10897</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="50"/>
+        <v>240828</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="51"/>
+        <v>251725</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="52"/>
+        <v>9.608158182348614E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37DA72-5A48-4389-A918-E51AFFADF0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F1E69-10CA-4B4E-A0C2-72B7EA31DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -1527,15 +1527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>94690</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>661145</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1860,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3362,23 +3362,23 @@
         <v>23624</v>
       </c>
       <c r="F40" s="2">
-        <f>E40/E39-1</f>
+        <f t="shared" ref="F40:F46" si="39">E40/E39-1</f>
         <v>0.11318443125058897</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G41" si="39">SUM(C27:C40)</f>
+        <f t="shared" ref="G40:G41" si="40">SUM(C27:C40)</f>
         <v>5093</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40:H41" si="40">SUM(D27:D40)</f>
+        <f t="shared" ref="H40:H41" si="41">SUM(D27:D40)</f>
         <v>140499</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I41" si="41">SUM(E27:E40)</f>
+        <f t="shared" ref="I40:I41" si="42">SUM(E27:E40)</f>
         <v>145592</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J40:J41" si="42">I40/I39-1</f>
+        <f t="shared" ref="J40:J41" si="43">I40/I39-1</f>
         <v>0.1718892117485129</v>
       </c>
     </row>
@@ -3400,23 +3400,23 @@
         <v>24943</v>
       </c>
       <c r="F41" s="2">
-        <f>E41/E40-1</f>
+        <f t="shared" si="39"/>
         <v>5.5833051134439593E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6054</v>
       </c>
       <c r="H41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>161805</v>
       </c>
       <c r="I41">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>167859</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1529410956645969</v>
       </c>
     </row>
@@ -3434,27 +3434,27 @@
         <v>25173</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E43" si="43">D42+C42</f>
+        <f t="shared" ref="E42:E43" si="44">D42+C42</f>
         <v>26087</v>
       </c>
       <c r="F42" s="2">
-        <f>E42/E41-1</f>
+        <f t="shared" si="39"/>
         <v>4.5864571222387074E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G43" si="44">SUM(C29:C42)</f>
+        <f t="shared" ref="G42:G43" si="45">SUM(C29:C42)</f>
         <v>6918</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H43" si="45">SUM(D29:D42)</f>
+        <f t="shared" ref="H42:H43" si="46">SUM(D29:D42)</f>
         <v>183528</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42:I43" si="46">SUM(E29:E42)</f>
+        <f t="shared" ref="I42:I43" si="47">SUM(E29:E42)</f>
         <v>190446</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" ref="J42:J43" si="47">I42/I41-1</f>
+        <f t="shared" ref="J42:J43" si="48">I42/I41-1</f>
         <v>0.13455936232194876</v>
       </c>
     </row>
@@ -3472,27 +3472,27 @@
         <v>22348</v>
       </c>
       <c r="E43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>23342</v>
       </c>
       <c r="F43" s="2">
-        <f>E43/E42-1</f>
+        <f t="shared" si="39"/>
         <v>-0.10522482462529226</v>
       </c>
       <c r="G43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7816</v>
       </c>
       <c r="H43">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>201495</v>
       </c>
       <c r="I43">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>209311</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>9.9056950526658527E-2</v>
       </c>
     </row>
@@ -3510,27 +3510,27 @@
         <v>25141</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E45" si="48">D44+C44</f>
+        <f t="shared" ref="E44:E46" si="49">D44+C44</f>
         <v>26330</v>
       </c>
       <c r="F44" s="2">
-        <f>E44/E43-1</f>
+        <f t="shared" si="39"/>
         <v>0.12800959643560961</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44:G45" si="49">SUM(C31:C44)</f>
+        <f t="shared" ref="G44:G46" si="50">SUM(C31:C44)</f>
         <v>8679</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:H45" si="50">SUM(D31:D44)</f>
+        <f t="shared" ref="H44:H46" si="51">SUM(D31:D44)</f>
         <v>220980</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:I45" si="51">SUM(E31:E44)</f>
+        <f t="shared" ref="I44:I46" si="52">SUM(E31:E44)</f>
         <v>229659</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:J45" si="52">I44/I43-1</f>
+        <f t="shared" ref="J44:J46" si="53">I44/I43-1</f>
         <v>9.7214193233991608E-2</v>
       </c>
     </row>
@@ -3548,28 +3548,66 @@
         <v>25146</v>
       </c>
       <c r="E45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>27719</v>
       </c>
       <c r="F45" s="2">
-        <f>E45/E44-1</f>
+        <f t="shared" si="39"/>
         <v>5.2753513102924421E-2</v>
       </c>
       <c r="G45">
+        <f t="shared" si="50"/>
+        <v>10897</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="51"/>
+        <v>240828</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="52"/>
+        <v>251725</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="53"/>
+        <v>9.608158182348614E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>3200</v>
+      </c>
+      <c r="D46">
+        <v>19872</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="49"/>
-        <v>10897</v>
-      </c>
-      <c r="H45">
+        <v>23072</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="39"/>
+        <v>-0.16764674050290418</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="50"/>
-        <v>240828</v>
-      </c>
-      <c r="I45">
+        <v>13739</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="51"/>
-        <v>251725</v>
-      </c>
-      <c r="J45" s="2">
+        <v>256556</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="52"/>
-        <v>9.608158182348614E-2</v>
+        <v>270295</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="53"/>
+        <v>7.3770980236369077E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F1E69-10CA-4B4E-A0C2-72B7EA31DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C76DE-8F2D-4D5C-865F-7C63B77F1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -1860,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="C33" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3510,7 +3510,7 @@
         <v>25141</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E46" si="49">D44+C44</f>
+        <f t="shared" ref="E44:E47" si="49">D44+C44</f>
         <v>26330</v>
       </c>
       <c r="F44" s="2">
@@ -3518,19 +3518,19 @@
         <v>0.12800959643560961</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44:G46" si="50">SUM(C31:C44)</f>
+        <f t="shared" ref="G44:G47" si="50">SUM(C31:C44)</f>
         <v>8679</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:H46" si="51">SUM(D31:D44)</f>
+        <f t="shared" ref="H44:H47" si="51">SUM(D31:D44)</f>
         <v>220980</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:I46" si="52">SUM(E31:E44)</f>
+        <f t="shared" ref="I44:I47" si="52">SUM(E31:E44)</f>
         <v>229659</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:J46" si="53">I44/I43-1</f>
+        <f t="shared" ref="J44:J47" si="53">I44/I43-1</f>
         <v>9.7214193233991608E-2</v>
       </c>
     </row>
@@ -3608,6 +3608,44 @@
       <c r="J46" s="2">
         <f t="shared" si="53"/>
         <v>7.3770980236369077E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B47" s="4">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>3590</v>
+      </c>
+      <c r="D47">
+        <v>19923</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="49"/>
+        <v>23513</v>
+      </c>
+      <c r="F47" s="2">
+        <f>E47/E46-1</f>
+        <v>1.9114077669902807E-2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="50"/>
+        <v>17069</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="51"/>
+        <v>270428</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="52"/>
+        <v>287497</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="53"/>
+        <v>6.3641576795723243E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C76DE-8F2D-4D5C-865F-7C63B77F1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462D60D-7680-4764-A7AF-B2BEEBD3FACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -300,7 +300,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24386990318572185"/>
+          <c:x val="0.23884774571696307"/>
           <c:y val="3.3553138010997838E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -477,10 +477,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$45</c:f>
+              <c:f>拟合!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -612,16 +612,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$45</c:f>
+              <c:f>拟合!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -753,6 +762,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>27719</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23072</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23513</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,14 +1546,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128307</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>5043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638734</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1860,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C1:C1048576"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3646,6 +3664,44 @@
       <c r="J47" s="2">
         <f t="shared" si="53"/>
         <v>6.3641576795723243E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B48" s="4">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>3238</v>
+      </c>
+      <c r="D48">
+        <v>21582</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="54">D48+C48</f>
+        <v>24820</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" ref="F48" si="55">E48/E47-1</f>
+        <v>5.558627142431849E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48" si="56">SUM(C35:C48)</f>
+        <v>19869</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48" si="57">SUM(D35:D48)</f>
+        <v>284222</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48" si="58">SUM(E35:E48)</f>
+        <v>304091</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" ref="J48" si="59">I48/I47-1</f>
+        <v>5.7718863153354727E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462D60D-7680-4764-A7AF-B2BEEBD3FACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76932169-8F6D-448B-ABB5-5F5E0F3AAB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -433,48 +433,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="C00000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>拟合!$B$2:$B$48</c:f>
@@ -627,10 +585,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$48</c:f>
+              <c:f>拟合!$E$2:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -771,6 +729,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>24820</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22248</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3680,28 +3644,104 @@
         <v>21582</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48" si="54">D48+C48</f>
+        <f t="shared" ref="E48:E50" si="54">D48+C48</f>
         <v>24820</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" ref="F48" si="55">E48/E47-1</f>
+        <f t="shared" ref="F48:F49" si="55">E48/E47-1</f>
         <v>5.558627142431849E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" ref="G48" si="56">SUM(C35:C48)</f>
+        <f t="shared" ref="G48:G50" si="56">SUM(C35:C48)</f>
         <v>19869</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48" si="57">SUM(D35:D48)</f>
+        <f t="shared" ref="H48:H50" si="57">SUM(D35:D48)</f>
         <v>284222</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48" si="58">SUM(E35:E48)</f>
+        <f t="shared" ref="I48:I50" si="58">SUM(E35:E48)</f>
         <v>304091</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" ref="J48" si="59">I48/I47-1</f>
+        <f t="shared" ref="J48:J50" si="59">I48/I47-1</f>
         <v>5.7718863153354727E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B49" s="4">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>2417</v>
+      </c>
+      <c r="D49">
+        <v>19831</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="54"/>
+        <v>22248</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="55"/>
+        <v>-0.10362610797743754</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="56"/>
+        <v>21861</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="57"/>
+        <v>295472</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="58"/>
+        <v>317333</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="59"/>
+        <v>4.3546175322518588E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B50" s="4">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>3084</v>
+      </c>
+      <c r="D50">
+        <v>17332</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="54"/>
+        <v>20416</v>
+      </c>
+      <c r="F50" s="2">
+        <f>E50/E49-1</f>
+        <v>-8.2344480402732789E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="56"/>
+        <v>24677</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="57"/>
+        <v>299718</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="58"/>
+        <v>324395</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="59"/>
+        <v>2.2254225056959065E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76932169-8F6D-448B-ABB5-5F5E0F3AAB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB4A2C-666B-4912-896D-D506DA91DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="14880" yWindow="-13470" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -435,10 +435,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$48</c:f>
+              <c:f>拟合!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -579,16 +579,28 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$50</c:f>
+              <c:f>拟合!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -735,6 +747,12 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>20416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3742,6 +3760,82 @@
       <c r="J50" s="2">
         <f t="shared" si="59"/>
         <v>2.2254225056959065E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B51" s="4">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2494</v>
+      </c>
+      <c r="D51">
+        <v>16407</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E52" si="60">D51+C51</f>
+        <v>18901</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" ref="F51:F52" si="61">E51/E50-1</f>
+        <v>-7.4206504702194365E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:G52" si="62">SUM(C38:C51)</f>
+        <v>26860</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:H52" si="63">SUM(D38:D51)</f>
+        <v>299359</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:I52" si="64">SUM(E38:E51)</f>
+        <v>326219</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" ref="J51:J52" si="65">I51/I50-1</f>
+        <v>5.6227747036792231E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B52" s="4">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>2634</v>
+      </c>
+      <c r="D52">
+        <v>15861</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="60"/>
+        <v>18495</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="61"/>
+        <v>-2.1480344955293385E-2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="62"/>
+        <v>29172</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="63"/>
+        <v>295560</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="64"/>
+        <v>324732</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="65"/>
+        <v>-4.5582875307692561E-3</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB4A2C-666B-4912-896D-D506DA91DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93411F-439F-4C89-AFB5-AED6BB562C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="-13470" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -435,10 +435,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$52</c:f>
+              <c:f>拟合!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -591,16 +591,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$52</c:f>
+              <c:f>拟合!$E$2:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -753,6 +756,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>18495</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,14 +1534,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>5043</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>16249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638734</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1860,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D1:D1048576"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3776,7 +3782,7 @@
         <v>16407</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E52" si="60">D51+C51</f>
+        <f t="shared" ref="E51:E53" si="60">D51+C51</f>
         <v>18901</v>
       </c>
       <c r="F51" s="2">
@@ -3784,19 +3790,19 @@
         <v>-7.4206504702194365E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G52" si="62">SUM(C38:C51)</f>
+        <f t="shared" ref="G51:G53" si="62">SUM(C38:C51)</f>
         <v>26860</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51:H52" si="63">SUM(D38:D51)</f>
+        <f t="shared" ref="H51:H53" si="63">SUM(D38:D51)</f>
         <v>299359</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:I52" si="64">SUM(E38:E51)</f>
+        <f t="shared" ref="I51:I53" si="64">SUM(E38:E51)</f>
         <v>326219</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" ref="J51:J52" si="65">I51/I50-1</f>
+        <f t="shared" ref="J51:J53" si="65">I51/I50-1</f>
         <v>5.6227747036792231E-3</v>
       </c>
     </row>
@@ -3836,6 +3842,44 @@
       <c r="J52" s="2">
         <f t="shared" si="65"/>
         <v>-4.5582875307692561E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B53" s="4">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>1931</v>
+      </c>
+      <c r="D53">
+        <v>15698</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="60"/>
+        <v>17629</v>
+      </c>
+      <c r="F53" s="2">
+        <f>E53/E52-1</f>
+        <v>-4.6823465801568043E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="62"/>
+        <v>30279</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="63"/>
+        <v>290860</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="64"/>
+        <v>321139</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="65"/>
+        <v>-1.1064508579382348E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93411F-439F-4C89-AFB5-AED6BB562C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BFD64C-FD3B-43B2-BEDF-AD10DE6A9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="14670" yWindow="-13560" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
     <sheet name="预测" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">拟合!$A$1:$J$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">拟合!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,19 +51,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当日合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>前14天确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>前14天无症状</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前14天合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -130,12 +122,77 @@
     <t>上限(0.001)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>相比前日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日无症状转确诊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前14天无症状转确诊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日出院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日出院出舱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日出舱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日阳性合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前14天阳性合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日重型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日危重型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计出院出舱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计阳性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然死亡人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新冠对死亡率的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
@@ -164,12 +221,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,15 +262,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,10 +298,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,7 +384,7 @@
               <a:tabLst/>
               <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="C00000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
@@ -279,15 +394,15 @@
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="C00000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>上海传播指数级上升被打断</a:t>
+              <a:t>新增阳性</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="0" u="none">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
@@ -300,8 +415,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23884774571696307"/>
-          <c:y val="3.3553138010997838E-2"/>
+          <c:x val="0.41587941054931016"/>
+          <c:y val="3.0502852737270762E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -333,7 +448,7 @@
             <a:tabLst/>
             <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
               <a:ea typeface="思源黑体 CN Heavy" panose="020B0A00000000000000" pitchFamily="34" charset="-122"/>
@@ -355,11 +470,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>拟合!$E$1</c:f>
+              <c:f>拟合!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>当日合计</c:v>
+                  <c:v>当日阳性合计</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,7 +715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$E$2:$E$53</c:f>
+              <c:f>拟合!$F$2:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -698,67 +813,67 @@
                   <c:v>4502</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6311</c:v>
+                  <c:v>6309</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8226</c:v>
+                  <c:v>8153</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9006</c:v>
+                  <c:v>8935</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13354</c:v>
+                  <c:v>13350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17077</c:v>
+                  <c:v>17037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19982</c:v>
+                  <c:v>19967</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21222</c:v>
+                  <c:v>20899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23624</c:v>
+                  <c:v>23204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24943</c:v>
+                  <c:v>24752</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26087</c:v>
+                  <c:v>26040</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>23342</c:v>
+                  <c:v>23069</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26330</c:v>
+                  <c:v>26307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27719</c:v>
+                  <c:v>27605</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23072</c:v>
+                  <c:v>22765</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23513</c:v>
+                  <c:v>22591</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24820</c:v>
+                  <c:v>23643</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>22248</c:v>
+                  <c:v>21395</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20416</c:v>
+                  <c:v>19442</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18901</c:v>
+                  <c:v>18368</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18495</c:v>
+                  <c:v>18036</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17629</c:v>
+                  <c:v>17486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,13 +1648,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>16249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638734</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
@@ -1866,49 +1981,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
+    <col min="19" max="19" width="9" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="e">
-        <f>I1/#REF!-1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44621</v>
       </c>
@@ -1921,30 +2080,70 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E30" si="0">D2+C2</f>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F30" si="0">D2+C2</f>
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <f>SUM(C$2:C2)</f>
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="O2">
         <f>SUM(D$2:D2)</f>
         <v>1</v>
       </c>
-      <c r="I2">
-        <f>SUM(E$2:E2)</f>
+      <c r="P2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2">
+        <f>N2+O2</f>
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="15">
+        <f>SUM(F$2:F2)</f>
+        <v>2</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44622</v>
       </c>
@@ -1957,32 +2156,72 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F27" si="1">E3/E2-1</f>
+      <c r="G3" s="2">
+        <f>F3/F2-1</f>
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <f>SUM(C$2:C3)</f>
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="O3">
         <f>SUM(D$2:D3)</f>
         <v>6</v>
       </c>
-      <c r="I3">
-        <f>SUM(E$2:E3)</f>
+      <c r="P3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q46" si="1">N3+O3</f>
         <v>10</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J29" si="2">I3/I2-1</f>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R29" si="2">Q3/Q2-1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S3" s="15">
+        <f>SUM(F$2:F3)</f>
+        <v>10</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44623</v>
       </c>
@@ -1995,32 +2234,72 @@
       <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
+      <c r="G4" s="2">
+        <f>F4/F3-1</f>
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <f>SUM(C$2:C4)</f>
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="O4">
         <f>SUM(D$2:D4)</f>
         <v>20</v>
       </c>
-      <c r="I4">
-        <f>SUM(E$2:E4)</f>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="J4" s="2">
+      <c r="R4" s="2">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S4" s="15">
+        <f>SUM(F$2:F4)</f>
+        <v>26</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44624</v>
       </c>
@@ -2033,32 +2312,72 @@
       <c r="D5">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
+      <c r="G5" s="2">
+        <f>F5/F4-1</f>
         <v>0.1875</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f>SUM(C$2:C5)</f>
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="O5">
         <f>SUM(D$2:D5)</f>
         <v>36</v>
       </c>
-      <c r="I5">
-        <f>SUM(E$2:E5)</f>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="J5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="2"/>
         <v>0.73076923076923084</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S5" s="15">
+        <f>SUM(F$2:F5)</f>
+        <v>45</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44625</v>
       </c>
@@ -2071,32 +2390,72 @@
       <c r="D6">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
+      <c r="G6" s="2">
+        <f>F6/F5-1</f>
         <v>0.47368421052631571</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f>SUM(C$2:C6)</f>
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="O6">
         <f>SUM(D$2:D6)</f>
         <v>64</v>
       </c>
-      <c r="I6">
-        <f>SUM(E$2:E6)</f>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="J6" s="2">
+      <c r="R6" s="2">
         <f t="shared" si="2"/>
         <v>0.62222222222222223</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S6" s="15">
+        <f>SUM(F$2:F6)</f>
+        <v>73</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44626</v>
       </c>
@@ -2109,32 +2468,72 @@
       <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
+      <c r="G7" s="2">
+        <f>F7/F6-1</f>
         <v>0.71428571428571419</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <f>SUM(C$2:C7)</f>
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="O7">
         <f>SUM(D$2:D7)</f>
         <v>109</v>
       </c>
-      <c r="I7">
-        <f>SUM(E$2:E7)</f>
+      <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="J7" s="2">
+      <c r="R7" s="2">
         <f t="shared" si="2"/>
         <v>0.65753424657534243</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S7" s="15">
+        <f>SUM(F$2:F7)</f>
+        <v>121</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44627</v>
       </c>
@@ -2147,32 +2546,72 @@
       <c r="D8">
         <v>51</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
+      <c r="G8" s="2">
+        <f>F8/F7-1</f>
         <v>0.14583333333333326</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f>SUM(C$2:C8)</f>
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="O8">
         <f>SUM(D$2:D8)</f>
         <v>160</v>
       </c>
-      <c r="I8">
-        <f>SUM(E$2:E8)</f>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="J8" s="2">
+      <c r="R8" s="2">
         <f t="shared" si="2"/>
         <v>0.45454545454545459</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S8" s="15">
+        <f>SUM(F$2:F8)</f>
+        <v>176</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44628</v>
       </c>
@@ -2185,32 +2624,72 @@
       <c r="D9">
         <v>62</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
+      <c r="G9" s="2">
+        <f>F9/F8-1</f>
         <v>0.18181818181818188</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <f>SUM(C$2:C9)</f>
         <v>19</v>
       </c>
-      <c r="H9">
+      <c r="O9">
         <f>SUM(D$2:D9)</f>
         <v>222</v>
       </c>
-      <c r="I9">
-        <f>SUM(E$2:E9)</f>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="J9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="2"/>
         <v>0.36931818181818188</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S9" s="15">
+        <f>SUM(F$2:F9)</f>
+        <v>241</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44629</v>
       </c>
@@ -2223,32 +2702,72 @@
       <c r="D10">
         <v>76</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
+      <c r="G10" s="2">
+        <f>F10/F9-1</f>
         <v>0.23076923076923084</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>SUM(C$2:C10)</f>
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="O10">
         <f>SUM(D$2:D10)</f>
         <v>298</v>
       </c>
-      <c r="I10">
-        <f>SUM(E$2:E10)</f>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="J10" s="2">
+      <c r="R10" s="2">
         <f t="shared" si="2"/>
         <v>0.3319502074688796</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S10" s="15">
+        <f>SUM(F$2:F10)</f>
+        <v>321</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44630</v>
       </c>
@@ -2261,32 +2780,72 @@
       <c r="D11">
         <v>64</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
+      <c r="G11" s="2">
+        <f>F11/F10-1</f>
         <v>-6.25E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <f>SUM(C$2:C11)</f>
         <v>34</v>
       </c>
-      <c r="H11">
+      <c r="O11">
         <f>SUM(D$2:D11)</f>
         <v>362</v>
       </c>
-      <c r="I11">
-        <f>SUM(E$2:E11)</f>
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="J11" s="2">
+      <c r="R11" s="2">
         <f t="shared" si="2"/>
         <v>0.23364485981308403</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S11" s="15">
+        <f>SUM(F$2:F11)</f>
+        <v>396</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44631</v>
       </c>
@@ -2299,32 +2858,72 @@
       <c r="D12">
         <v>78</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
+      <c r="G12" s="2">
+        <f>F12/F11-1</f>
         <v>0.10666666666666669</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <f>SUM(C$2:C12)</f>
         <v>39</v>
       </c>
-      <c r="H12">
+      <c r="O12">
         <f>SUM(D$2:D12)</f>
         <v>440</v>
       </c>
-      <c r="I12">
-        <f>SUM(E$2:E12)</f>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
         <v>479</v>
       </c>
-      <c r="J12" s="2">
+      <c r="R12" s="2">
         <f t="shared" si="2"/>
         <v>0.20959595959595956</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S12" s="15">
+        <f>SUM(F$2:F12)</f>
+        <v>479</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44632</v>
       </c>
@@ -2337,32 +2936,72 @@
       <c r="D13">
         <v>64</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
+      <c r="G13" s="2">
+        <f>F13/F12-1</f>
         <v>-0.2168674698795181</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <f>SUM(C$2:C13)</f>
         <v>40</v>
       </c>
-      <c r="H13">
+      <c r="O13">
         <f>SUM(D$2:D13)</f>
         <v>504</v>
       </c>
-      <c r="I13">
-        <f>SUM(E$2:E13)</f>
+      <c r="P13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="J13" s="2">
+      <c r="R13" s="2">
         <f t="shared" si="2"/>
         <v>0.13569937369519836</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S13" s="15">
+        <f>SUM(F$2:F13)</f>
+        <v>544</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44633</v>
       </c>
@@ -2375,32 +3014,73 @@
       <c r="D14">
         <v>128</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
+      <c r="G14" s="2">
+        <f>F14/F13-1</f>
         <v>1.6</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <f>SUM(C$2:C14)</f>
         <v>81</v>
       </c>
-      <c r="H14">
+      <c r="O14">
         <f>SUM(D$2:D14)</f>
         <v>632</v>
       </c>
-      <c r="I14">
-        <f>SUM(E$2:E14)</f>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
         <v>713</v>
       </c>
-      <c r="J14" s="2">
+      <c r="R14" s="2">
         <f t="shared" si="2"/>
         <v>0.31066176470588225</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S14" s="15">
+        <f>SUM(F$2:F14)</f>
+        <v>713</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <f>SUM(M1:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44634</v>
       </c>
@@ -2413,32 +3093,73 @@
       <c r="D15">
         <v>130</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
+      <c r="G15" s="2">
+        <f>F15/F14-1</f>
         <v>-0.1775147928994083</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f>SUM(C$2:C15)</f>
         <v>90</v>
       </c>
-      <c r="H15">
+      <c r="O15">
         <f>SUM(D$2:D15)</f>
         <v>762</v>
       </c>
-      <c r="I15">
-        <f>SUM(E$2:E15)</f>
+      <c r="P15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
         <v>852</v>
       </c>
-      <c r="J15" s="2">
+      <c r="R15" s="2">
         <f t="shared" si="2"/>
         <v>0.19495091164095379</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S15" s="15">
+        <f>SUM(F$2:F15)</f>
+        <v>852</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15">
+        <f>SUM(M2:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44635</v>
       </c>
@@ -2451,32 +3172,73 @@
       <c r="D16">
         <v>197</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
+        <f>F16/F15-1</f>
+        <v>0.45323741007194251</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>SUM(C3:C16)</f>
+        <v>94</v>
+      </c>
+      <c r="O16">
+        <f>SUM(D3:D16)</f>
+        <v>958</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="1"/>
-        <v>0.45323741007194251</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G27" si="3">SUM(C3:C16)</f>
-        <v>94</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H28" si="4">SUM(D3:D16)</f>
-        <v>958</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I28" si="5">SUM(E3:E16)</f>
         <v>1052</v>
       </c>
-      <c r="J16" s="2">
+      <c r="R16" s="2">
         <f t="shared" si="2"/>
         <v>0.23474178403755874</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S16" s="15">
+        <f>SUM(F$2:F16)</f>
+        <v>1054</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16">
+        <f>SUM(M3:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44636</v>
       </c>
@@ -2489,32 +3251,73 @@
       <c r="D17">
         <v>150</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
+        <f>F17/F16-1</f>
+        <v>-0.21782178217821779</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>SUM(C4:C17)</f>
+        <v>99</v>
+      </c>
+      <c r="O17">
+        <f>SUM(D4:D17)</f>
+        <v>1103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="1"/>
-        <v>-0.21782178217821779</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>1103</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
         <v>1202</v>
       </c>
-      <c r="J17" s="2">
+      <c r="R17" s="2">
         <f t="shared" si="2"/>
         <v>0.14258555133079853</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S17" s="15">
+        <f>SUM(F$2:F17)</f>
+        <v>1212</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17">
+        <f>SUM(M4:M17)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44637</v>
       </c>
@@ -2527,32 +3330,73 @@
       <c r="D18">
         <v>203</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
+        <f>F18/F17-1</f>
+        <v>0.64556962025316467</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>SUM(C5:C18)</f>
+        <v>154</v>
+      </c>
+      <c r="O18">
+        <f>SUM(D5:D18)</f>
+        <v>1292</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="1"/>
-        <v>0.64556962025316467</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>154</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>1292</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
         <v>1446</v>
       </c>
-      <c r="J18" s="2">
+      <c r="R18" s="2">
         <f t="shared" si="2"/>
         <v>0.2029950083194676</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S18" s="15">
+        <f>SUM(F$2:F18)</f>
+        <v>1472</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18">
+        <f>SUM(M5:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44638</v>
       </c>
@@ -2565,32 +3409,73 @@
       <c r="D19">
         <v>366</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
+        <f>F19/F18-1</f>
+        <v>0.43846153846153846</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>SUM(C6:C19)</f>
+        <v>159</v>
+      </c>
+      <c r="O19">
+        <f>SUM(D6:D19)</f>
+        <v>1642</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="1"/>
-        <v>0.43846153846153846</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>1642</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
         <v>1801</v>
       </c>
-      <c r="J19" s="2">
+      <c r="R19" s="2">
         <f t="shared" si="2"/>
         <v>0.2455048409405256</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S19" s="15">
+        <f>SUM(F$2:F19)</f>
+        <v>1846</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19">
+        <f>SUM(M6:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44639</v>
       </c>
@@ -2603,32 +3488,73 @@
       <c r="D20">
         <v>492</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
+        <f>F20/F19-1</f>
+        <v>0.3609625668449199</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>SUM(C7:C20)</f>
+        <v>176</v>
+      </c>
+      <c r="O20">
+        <f>SUM(D7:D20)</f>
+        <v>2106</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="1"/>
-        <v>0.3609625668449199</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>176</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>2106</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
         <v>2282</v>
       </c>
-      <c r="J20" s="2">
+      <c r="R20" s="2">
         <f t="shared" si="2"/>
         <v>0.26707384786229871</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S20" s="15">
+        <f>SUM(F$2:F20)</f>
+        <v>2355</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <f>SUM(M7:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44640</v>
       </c>
@@ -2641,32 +3567,73 @@
       <c r="D21">
         <v>734</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>758</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
+        <f>F21/F20-1</f>
+        <v>0.48919449901768175</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>SUM(C8:C21)</f>
+        <v>197</v>
+      </c>
+      <c r="O21">
+        <f>SUM(D8:D21)</f>
+        <v>2795</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="1"/>
-        <v>0.48919449901768175</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>197</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>2795</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
         <v>2992</v>
       </c>
-      <c r="J21" s="2">
+      <c r="R21" s="2">
         <f t="shared" si="2"/>
         <v>0.31113058720420694</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S21" s="15">
+        <f>SUM(F$2:F21)</f>
+        <v>3113</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21">
+        <f>SUM(M8:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44641</v>
       </c>
@@ -2679,32 +3646,73 @@
       <c r="D22">
         <v>865</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>896</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
+        <f>F22/F21-1</f>
+        <v>0.18205804749340371</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>SUM(C9:C22)</f>
+        <v>224</v>
+      </c>
+      <c r="O22">
+        <f>SUM(D9:D22)</f>
+        <v>3609</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="1"/>
-        <v>0.18205804749340371</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>3609</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
         <v>3833</v>
       </c>
-      <c r="J22" s="2">
+      <c r="R22" s="2">
         <f t="shared" si="2"/>
         <v>0.28108288770053469</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S22" s="15">
+        <f>SUM(F$2:F22)</f>
+        <v>4009</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22">
+        <f>SUM(M9:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44642</v>
       </c>
@@ -2717,32 +3725,73 @@
       <c r="D23">
         <v>977</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>981</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
+        <f>F23/F22-1</f>
+        <v>9.4866071428571397E-2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>SUM(C10:C23)</f>
+        <v>225</v>
+      </c>
+      <c r="O23">
+        <f>SUM(D10:D23)</f>
+        <v>4524</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="1"/>
-        <v>9.4866071428571397E-2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>4524</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
         <v>4749</v>
       </c>
-      <c r="J23" s="2">
+      <c r="R23" s="2">
         <f t="shared" si="2"/>
         <v>0.23897730237411952</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S23" s="15">
+        <f>SUM(F$2:F23)</f>
+        <v>4990</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <f>SUM(M10:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44643</v>
       </c>
@@ -2755,32 +3804,73 @@
       <c r="D24">
         <v>979</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>983</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
+        <f>F24/F23-1</f>
+        <v>2.0387359836901986E-3</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>SUM(C11:C24)</f>
+        <v>225</v>
+      </c>
+      <c r="O24">
+        <f>SUM(D11:D24)</f>
+        <v>5427</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="1"/>
-        <v>2.0387359836901986E-3</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>5427</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
         <v>5652</v>
       </c>
-      <c r="J24" s="2">
+      <c r="R24" s="2">
         <f t="shared" si="2"/>
         <v>0.19014529374605171</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S24" s="15">
+        <f>SUM(F$2:F24)</f>
+        <v>5973</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24">
+        <f>SUM(M11:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44644</v>
       </c>
@@ -2793,32 +3883,73 @@
       <c r="D25">
         <v>1580</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>1609</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
+        <f>F25/F24-1</f>
+        <v>0.63682604272634791</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>SUM(C12:C25)</f>
+        <v>243</v>
+      </c>
+      <c r="O25">
+        <f>SUM(D12:D25)</f>
+        <v>6943</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="1"/>
-        <v>0.63682604272634791</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>243</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>6943</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="5"/>
         <v>7186</v>
       </c>
-      <c r="J25" s="2">
+      <c r="R25" s="2">
         <f t="shared" si="2"/>
         <v>0.27140835102618532</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S25" s="15">
+        <f>SUM(F$2:F25)</f>
+        <v>7582</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25">
+        <f>SUM(M12:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44645</v>
       </c>
@@ -2831,32 +3962,73 @@
       <c r="D26">
         <v>2231</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>2269</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
+        <f>F26/F25-1</f>
+        <v>0.41019266625233075</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>SUM(C13:C26)</f>
+        <v>276</v>
+      </c>
+      <c r="O26">
+        <f>SUM(D13:D26)</f>
+        <v>9096</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="1"/>
-        <v>0.41019266625233075</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>276</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>9096</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="5"/>
         <v>9372</v>
       </c>
-      <c r="J26" s="2">
+      <c r="R26" s="2">
         <f t="shared" si="2"/>
         <v>0.30420261619816302</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S26" s="15">
+        <f>SUM(F$2:F26)</f>
+        <v>9851</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26">
+        <f>SUM(M13:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44646</v>
       </c>
@@ -2869,32 +4041,73 @@
       <c r="D27">
         <v>2631</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>2676</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
+        <f>F27/F26-1</f>
+        <v>0.17937417364477737</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>SUM(C14:C27)</f>
+        <v>320</v>
+      </c>
+      <c r="O27">
+        <f>SUM(D14:D27)</f>
+        <v>11663</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="1"/>
-        <v>0.17937417364477737</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>11663</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
         <v>11983</v>
       </c>
-      <c r="J27" s="2">
+      <c r="R27" s="2">
         <f t="shared" si="2"/>
         <v>0.2785958173282117</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S27" s="15">
+        <f>SUM(F$2:F27)</f>
+        <v>12527</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27">
+        <f>SUM(M14:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44647</v>
       </c>
@@ -2907,32 +4120,73 @@
       <c r="D28">
         <v>3450</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F28" s="2">
-        <f>E28/E27-1</f>
+      <c r="G28" s="2">
+        <f>F28/F27-1</f>
         <v>0.30792227204783251</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <f>SUM(C15:C28)</f>
         <v>329</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
+      <c r="O28">
+        <f>SUM(D15:D28)</f>
         <v>14985</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="5"/>
+      <c r="P28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
         <v>15314</v>
       </c>
-      <c r="J28" s="2">
-        <f>I28/I27-1</f>
+      <c r="R28" s="2">
+        <f>Q28/Q27-1</f>
         <v>0.27797713427355419</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S28" s="15">
+        <f>SUM(F$2:F28)</f>
+        <v>16027</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U28">
+        <f>SUM(M15:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44648</v>
       </c>
@@ -2945,32 +4199,73 @@
       <c r="D29">
         <v>4381</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>4477</v>
       </c>
-      <c r="F29" s="2">
-        <f>E29/E28-1</f>
+      <c r="G29" s="2">
+        <f>F29/F28-1</f>
         <v>0.27914285714285714</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29" si="6">SUM(C16:C29)</f>
+      <c r="H29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>SUM(C16:C29)</f>
         <v>416</v>
       </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H30" si="7">SUM(D16:D29)</f>
+      <c r="O29">
+        <f>SUM(D16:D29)</f>
         <v>19236</v>
       </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I30" si="8">SUM(E16:E29)</f>
+      <c r="P29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
         <v>19652</v>
       </c>
-      <c r="J29" s="2">
+      <c r="R29" s="2">
         <f t="shared" si="2"/>
         <v>0.28327021026511678</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S29" s="15">
+        <f>SUM(F$2:F29)</f>
+        <v>20504</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29">
+        <f>SUM(M16:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44649</v>
       </c>
@@ -2983,32 +4278,73 @@
       <c r="D30">
         <v>5656</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>5982</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" ref="F30" si="9">E30/E29-1</f>
+      <c r="G30" s="2">
+        <f>F30/F29-1</f>
         <v>0.3361626088898817</v>
       </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G31" si="10">SUM(C17:C30)</f>
+      <c r="H30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>SUM(C17:C30)</f>
         <v>737</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
+      <c r="O30">
+        <f>SUM(D17:D30)</f>
         <v>24695</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="8"/>
+      <c r="P30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
         <v>25432</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" ref="J30:J31" si="11">I30/I29-1</f>
+      <c r="R30" s="2">
+        <f t="shared" ref="R30:R31" si="3">Q30/Q29-1</f>
         <v>0.29411764705882359</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S30" s="15">
+        <f>SUM(F$2:F30)</f>
+        <v>26486</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30">
+        <f>SUM(M17:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44650</v>
       </c>
@@ -3021,32 +4357,73 @@
       <c r="D31">
         <v>5298</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31" si="12">D31+C31</f>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="4">D31+C31</f>
         <v>5653</v>
       </c>
-      <c r="F31" s="2">
-        <f>E31/E30-1</f>
+      <c r="G31" s="2">
+        <f>F31/F30-1</f>
         <v>-5.4998328318288214E-2</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="10"/>
+      <c r="H31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>SUM(C18:C31)</f>
         <v>1084</v>
       </c>
-      <c r="H31">
-        <f t="shared" ref="H31" si="13">SUM(D18:D31)</f>
+      <c r="O31">
+        <f>SUM(D18:D31)</f>
         <v>29843</v>
       </c>
-      <c r="I31">
-        <f t="shared" ref="I31" si="14">SUM(E18:E31)</f>
+      <c r="P31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
         <v>30927</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="11"/>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
         <v>0.21606637307329346</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S31" s="15">
+        <f>SUM(F$2:F31)</f>
+        <v>32139</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U31">
+        <f>SUM(M18:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44651</v>
       </c>
@@ -3059,32 +4436,73 @@
       <c r="D32">
         <v>4144</v>
       </c>
-      <c r="E32">
-        <f t="shared" ref="E32:E35" si="15">D32+C32</f>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F35" si="5">D32+C32</f>
         <v>4502</v>
       </c>
-      <c r="F32" s="2">
-        <f>E32/E31-1</f>
+      <c r="G32" s="2">
+        <f>F32/F31-1</f>
         <v>-0.20360870334335746</v>
       </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G34" si="16">SUM(C19:C32)</f>
+      <c r="H32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>SUM(C19:C32)</f>
         <v>1385</v>
       </c>
-      <c r="H32">
-        <f t="shared" ref="H32:H33" si="17">SUM(D19:D32)</f>
+      <c r="O32">
+        <f>SUM(D19:D32)</f>
         <v>33784</v>
       </c>
-      <c r="I32">
-        <f t="shared" ref="I32:I34" si="18">SUM(E19:E32)</f>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
         <v>35169</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" ref="J32:J34" si="19">I32/I31-1</f>
+      <c r="R32" s="2">
+        <f t="shared" ref="R32:R34" si="6">Q32/Q31-1</f>
         <v>0.13716170336599087</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S32" s="15">
+        <f>SUM(F$2:F32)</f>
+        <v>36641</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32">
+        <f>SUM(M19:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44652</v>
       </c>
@@ -3098,31 +4516,75 @@
         <v>6051</v>
       </c>
       <c r="E33">
-        <f t="shared" si="15"/>
-        <v>6311</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" ref="F33" si="20">E33/E32-1</f>
-        <v>0.40182141270546423</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F52" si="7">D33+C33-E33</f>
+        <v>6309</v>
+      </c>
+      <c r="G33" s="2">
+        <f>F33/F32-1</f>
+        <v>0.4013771657041314</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>SUM(C20:C33)</f>
         <v>1637</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="17"/>
+      <c r="O33">
+        <f>SUM(D20:D33)</f>
         <v>39469</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="18"/>
-        <v>41106</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="19"/>
-        <v>0.16881344365776685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <f t="shared" ref="P33:P44" si="8">SUM(E20:E33)</f>
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q48" si="9">N33+O33-P33</f>
+        <v>41104</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16875657539310196</v>
+      </c>
+      <c r="S33" s="15">
+        <f>SUM(F$2:F33)</f>
+        <v>42950</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33">
+        <f>SUM(M20:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
+        <f>SUM(Q$2:Q33)*(380.82/24894300)</f>
+        <v>3.444181219797303</v>
+      </c>
+      <c r="W33" s="17">
+        <f t="shared" ref="W5:W52" si="10">(U33-V33)/V33</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44653</v>
       </c>
@@ -3136,31 +4598,75 @@
         <v>7788</v>
       </c>
       <c r="E34">
-        <f t="shared" si="15"/>
-        <v>8226</v>
-      </c>
-      <c r="F34" s="2">
-        <f>E34/E33-1</f>
-        <v>0.30343844081762006</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>8153</v>
+      </c>
+      <c r="G34" s="2">
+        <f>F34/F33-1</f>
+        <v>0.29228086860041214</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>SUM(C21:C34)</f>
         <v>2058</v>
       </c>
-      <c r="H34">
-        <f t="shared" ref="H34" si="21">SUM(D21:D34)</f>
+      <c r="O34">
+        <f>SUM(D21:D34)</f>
         <v>46765</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="18"/>
-        <v>48823</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="19"/>
-        <v>0.18773415073225319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>48748</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18596730245231607</v>
+      </c>
+      <c r="S34" s="15">
+        <f>SUM(F$2:F34)</f>
+        <v>51103</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34">
+        <f>SUM(M21:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
+        <f>SUM(Q$2:Q34)*(380.82/24894300)</f>
+        <v>4.1899026644653592</v>
+      </c>
+      <c r="W34" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44654</v>
       </c>
@@ -3174,31 +4680,75 @@
         <v>8581</v>
       </c>
       <c r="E35">
-        <f t="shared" si="15"/>
-        <v>9006</v>
-      </c>
-      <c r="F35" s="2">
-        <f>E35/E34-1</f>
-        <v>9.4821298322392389E-2</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35" si="22">SUM(C22:C35)</f>
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>8935</v>
+      </c>
+      <c r="G35" s="2">
+        <f>F35/F34-1</f>
+        <v>9.5915613884459683E-2</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>SUM(C22:C35)</f>
         <v>2459</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H35" si="23">SUM(D22:D35)</f>
+      <c r="O35">
+        <f>SUM(D22:D35)</f>
         <v>54612</v>
       </c>
-      <c r="I35">
-        <f t="shared" ref="I35" si="24">SUM(E22:E35)</f>
-        <v>57071</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" ref="J35" si="25">I35/I34-1</f>
-        <v>0.16893677160354748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>56925</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" ref="R35" si="11">Q35/Q34-1</f>
+        <v>0.16774021498317881</v>
+      </c>
+      <c r="S35" s="15">
+        <f>SUM(F$2:F35)</f>
+        <v>60038</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35">
+        <f>SUM(M22:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <f>SUM(Q$2:Q35)*(380.82/24894300)</f>
+        <v>5.060711584579602</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44655</v>
       </c>
@@ -3212,31 +4762,75 @@
         <v>13086</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E37" si="26">D36+C36</f>
-        <v>13354</v>
-      </c>
-      <c r="F36" s="2">
-        <f>E36/E35-1</f>
-        <v>0.48278925161003783</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:G37" si="27">SUM(C23:C36)</f>
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>13350</v>
+      </c>
+      <c r="G36" s="2">
+        <f>F36/F35-1</f>
+        <v>0.49412423055400101</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>SUM(C23:C36)</f>
         <v>2696</v>
       </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H37" si="28">SUM(D23:D36)</f>
+      <c r="O36">
+        <f>SUM(D23:D36)</f>
         <v>66833</v>
       </c>
-      <c r="I36">
-        <f t="shared" ref="I36:I37" si="29">SUM(E23:E36)</f>
-        <v>69529</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" ref="J36:J37" si="30">I36/I35-1</f>
-        <v>0.21828949904504924</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>69379</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" ref="R36:R37" si="12">Q36/Q35-1</f>
+        <v>0.21877909530083439</v>
+      </c>
+      <c r="S36" s="15">
+        <f>SUM(F$2:F36)</f>
+        <v>73388</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U36">
+        <f>SUM(M$2:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
+        <f>SUM(Q$2:Q36)*(380.82/24894300)</f>
+        <v>6.1220352924163359</v>
+      </c>
+      <c r="W36" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44656</v>
       </c>
@@ -3250,31 +4844,75 @@
         <v>16766</v>
       </c>
       <c r="E37">
-        <f t="shared" si="26"/>
-        <v>17077</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" ref="F37" si="31">E37/E36-1</f>
-        <v>0.2787928710498726</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>17037</v>
+      </c>
+      <c r="G37" s="2">
+        <f>F37/F36-1</f>
+        <v>0.27617977528089899</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>SUM(C24:C37)</f>
         <v>3003</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="28"/>
+      <c r="O37">
+        <f>SUM(D24:D37)</f>
         <v>82622</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="29"/>
-        <v>85625</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="30"/>
-        <v>0.23150052496080775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>85435</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="12"/>
+        <v>0.23142449444356372</v>
+      </c>
+      <c r="S37" s="15">
+        <f>SUM(F$2:F37)</f>
+        <v>90425</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U37">
+        <f>SUM(M$2:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <f>SUM(Q$2:Q37)*(380.82/24894300)</f>
+        <v>7.4289753027801542</v>
+      </c>
+      <c r="W37" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44657</v>
       </c>
@@ -3288,31 +4926,75 @@
         <v>19660</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E39" si="32">D38+C38</f>
-        <v>19982</v>
-      </c>
-      <c r="F38" s="2">
-        <f>E38/E37-1</f>
-        <v>0.17011184634303445</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G39" si="33">SUM(C25:C38)</f>
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>19967</v>
+      </c>
+      <c r="G38" s="2">
+        <f>F38/F37-1</f>
+        <v>0.17197863473616248</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>SUM(C25:C38)</f>
         <v>3321</v>
       </c>
-      <c r="H38">
-        <f t="shared" ref="H38:H39" si="34">SUM(D25:D38)</f>
+      <c r="O38">
+        <f>SUM(D25:D38)</f>
         <v>101303</v>
       </c>
-      <c r="I38">
-        <f t="shared" ref="I38:I39" si="35">SUM(E25:E38)</f>
-        <v>104624</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" ref="J38:J39" si="36">I38/I37-1</f>
-        <v>0.22188613138686142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>104419</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" ref="R38:R39" si="13">Q38/Q37-1</f>
+        <v>0.22220401474805418</v>
+      </c>
+      <c r="S38" s="15">
+        <f>SUM(F$2:F38)</f>
+        <v>110392</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U38">
+        <f>SUM(M$2:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
+        <f>SUM(Q$2:Q38)*(380.82/24894300)</f>
+        <v>9.0263226304816762</v>
+      </c>
+      <c r="W38" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44658</v>
       </c>
@@ -3326,31 +5008,75 @@
         <v>20398</v>
       </c>
       <c r="E39">
-        <f t="shared" si="32"/>
-        <v>21222</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" ref="F39" si="37">E39/E38-1</f>
-        <v>6.2055850265238632E-2</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="33"/>
+        <v>323</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>20899</v>
+      </c>
+      <c r="G39" s="2">
+        <f>F39/F38-1</f>
+        <v>4.6677017078178951E-2</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>SUM(C26:C39)</f>
         <v>4116</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="34"/>
+      <c r="O39">
+        <f>SUM(D26:D39)</f>
         <v>120121</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="35"/>
-        <v>124237</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="36"/>
-        <v>0.18746176785441193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>528</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>123709</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="13"/>
+        <v>0.18473649431616845</v>
+      </c>
+      <c r="S39" s="15">
+        <f>SUM(F$2:F39)</f>
+        <v>131291</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U39">
+        <f>SUM(M$2:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="16">
+        <f>SUM(Q$2:Q39)*(380.82/24894300)</f>
+        <v>10.918758303708078</v>
+      </c>
+      <c r="W39" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44659</v>
       </c>
@@ -3364,31 +5090,76 @@
         <v>22609</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E41" si="38">D40+C40</f>
-        <v>23624</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" ref="F40:F46" si="39">E40/E39-1</f>
-        <v>0.11318443125058897</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ref="G40:G41" si="40">SUM(C27:C40)</f>
+        <v>420</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>23204</v>
+      </c>
+      <c r="G40" s="2">
+        <f>F40/F39-1</f>
+        <v>0.11029235848605201</v>
+      </c>
+      <c r="H40">
+        <v>110</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J41" si="14">H40</f>
+        <v>110</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>SUM(C27:C40)</f>
         <v>5093</v>
       </c>
-      <c r="H40">
-        <f t="shared" ref="H40:H41" si="41">SUM(D27:D40)</f>
+      <c r="O40">
+        <f>SUM(D27:D40)</f>
         <v>140499</v>
       </c>
-      <c r="I40">
-        <f t="shared" ref="I40:I41" si="42">SUM(E27:E40)</f>
-        <v>145592</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" ref="J40:J41" si="43">I40/I39-1</f>
-        <v>0.1718892117485129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>948</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="9"/>
+        <v>144644</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" ref="R40:R41" si="15">Q40/Q39-1</f>
+        <v>0.16922778455892451</v>
+      </c>
+      <c r="S40" s="15">
+        <f>SUM(F$2:F40)</f>
+        <v>154495</v>
+      </c>
+      <c r="T40">
+        <v>10000</v>
+      </c>
+      <c r="U40">
+        <f>SUM(M$2:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="16">
+        <f>SUM(Q$2:Q40)*(380.82/24894300)</f>
+        <v>13.13144667333486</v>
+      </c>
+      <c r="W40" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44660</v>
       </c>
@@ -3402,31 +5173,76 @@
         <v>23937</v>
       </c>
       <c r="E41">
-        <f t="shared" si="38"/>
-        <v>24943</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="39"/>
-        <v>5.5833051134439593E-2</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="40"/>
+        <v>191</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>24752</v>
+      </c>
+      <c r="G41" s="2">
+        <f>F41/F40-1</f>
+        <v>6.6712635752456562E-2</v>
+      </c>
+      <c r="H41">
+        <v>217</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>SUM(C28:C41)</f>
         <v>6054</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="41"/>
+      <c r="O41">
+        <f>SUM(D28:D41)</f>
         <v>161805</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="42"/>
-        <v>167859</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="43"/>
-        <v>0.1529410956645969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>1139</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="9"/>
+        <v>166720</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="15"/>
+        <v>0.15262299162080684</v>
+      </c>
+      <c r="S41" s="15">
+        <f>SUM(F$2:F41)</f>
+        <v>179247</v>
+      </c>
+      <c r="T41">
+        <v>10000</v>
+      </c>
+      <c r="U41">
+        <f>SUM(M$2:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="16">
+        <f>SUM(Q$2:Q41)*(380.82/24894300)</f>
+        <v>15.681842161458647</v>
+      </c>
+      <c r="W41" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44661</v>
       </c>
@@ -3440,31 +5256,77 @@
         <v>25173</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E43" si="44">D42+C42</f>
-        <v>26087</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="39"/>
-        <v>4.5864571222387074E-2</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ref="G42:G43" si="45">SUM(C29:C42)</f>
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>26040</v>
+      </c>
+      <c r="G42" s="2">
+        <f>F42/F41-1</f>
+        <v>5.2036199095022662E-2</v>
+      </c>
+      <c r="H42">
+        <v>291</v>
+      </c>
+      <c r="I42" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J42">
+        <f>H42+I42</f>
+        <v>3291</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>SUM(C29:C42)</f>
         <v>6918</v>
       </c>
-      <c r="H42">
-        <f t="shared" ref="H42:H43" si="46">SUM(D29:D42)</f>
+      <c r="O42">
+        <f>SUM(D29:D42)</f>
         <v>183528</v>
       </c>
-      <c r="I42">
-        <f t="shared" ref="I42:I43" si="47">SUM(E29:E42)</f>
-        <v>190446</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" ref="J42:J43" si="48">I42/I41-1</f>
-        <v>0.13455936232194876</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>1186</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>189260</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" ref="R42:R43" si="16">Q42/Q41-1</f>
+        <v>0.13519673704414581</v>
+      </c>
+      <c r="S42" s="15">
+        <f>SUM(F$2:F42)</f>
+        <v>205287</v>
+      </c>
+      <c r="T42" s="4">
+        <f>SUM(J$2:J42)+T$40</f>
+        <v>13618</v>
+      </c>
+      <c r="U42">
+        <f>SUM(M$2:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="16">
+        <f>SUM(Q$2:Q42)*(380.82/24894300)</f>
+        <v>18.577042797748881</v>
+      </c>
+      <c r="W42" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44662</v>
       </c>
@@ -3478,31 +5340,77 @@
         <v>22348</v>
       </c>
       <c r="E43">
-        <f t="shared" si="44"/>
-        <v>23342</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.10522482462529226</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="45"/>
+        <v>273</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>23069</v>
+      </c>
+      <c r="G43" s="2">
+        <f>F43/F42-1</f>
+        <v>-0.11409370199692781</v>
+      </c>
+      <c r="H43">
+        <v>379</v>
+      </c>
+      <c r="I43" s="8">
+        <v>6000</v>
+      </c>
+      <c r="J43">
+        <f>H43+I43</f>
+        <v>6379</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>SUM(C30:C43)</f>
         <v>7816</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="46"/>
+      <c r="O43">
+        <f>SUM(D30:D43)</f>
         <v>201495</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="47"/>
-        <v>209311</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="48"/>
-        <v>9.9056950526658527E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>1459</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>207852</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="16"/>
+        <v>9.8235231956039337E-2</v>
+      </c>
+      <c r="S43" s="15">
+        <f>SUM(F$2:F43)</f>
+        <v>228356</v>
+      </c>
+      <c r="T43" s="4">
+        <f>SUM(J$2:J43)+T$40</f>
+        <v>19997</v>
+      </c>
+      <c r="U43">
+        <f>SUM(M$2:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="16">
+        <f>SUM(Q$2:Q43)*(380.82/24894300)</f>
+        <v>21.756654140104359</v>
+      </c>
+      <c r="W43" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44663</v>
       </c>
@@ -3516,31 +5424,77 @@
         <v>25141</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E47" si="49">D44+C44</f>
-        <v>26330</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="39"/>
-        <v>0.12800959643560961</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ref="G44:G47" si="50">SUM(C31:C44)</f>
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>26307</v>
+      </c>
+      <c r="G44" s="2">
+        <f>F44/F43-1</f>
+        <v>0.14036152412328229</v>
+      </c>
+      <c r="H44">
+        <v>334</v>
+      </c>
+      <c r="I44">
+        <v>6044</v>
+      </c>
+      <c r="J44">
+        <f>H44+I44</f>
+        <v>6378</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>SUM(C31:C44)</f>
         <v>8679</v>
       </c>
-      <c r="H44">
-        <f t="shared" ref="H44:H47" si="51">SUM(D31:D44)</f>
+      <c r="O44">
+        <f>SUM(D31:D44)</f>
         <v>220980</v>
       </c>
-      <c r="I44">
-        <f t="shared" ref="I44:I47" si="52">SUM(E31:E44)</f>
-        <v>229659</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" ref="J44:J47" si="53">I44/I43-1</f>
-        <v>9.7214193233991608E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>228177</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" ref="R44:R47" si="17">Q44/Q43-1</f>
+        <v>9.7785924600196195E-2</v>
+      </c>
+      <c r="S44" s="15">
+        <f>SUM(F$2:F44)</f>
+        <v>254663</v>
+      </c>
+      <c r="T44" s="4">
+        <f>SUM(J$2:J44)+T$40</f>
+        <v>26375</v>
+      </c>
+      <c r="U44">
+        <f>SUM(M$2:M44)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="16">
+        <f>SUM(Q$2:Q44)*(380.82/24894300)</f>
+        <v>25.247186717441341</v>
+      </c>
+      <c r="W44" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44664</v>
       </c>
@@ -3554,31 +5508,77 @@
         <v>25146</v>
       </c>
       <c r="E45">
-        <f t="shared" si="49"/>
-        <v>27719</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="39"/>
-        <v>5.2753513102924421E-2</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="50"/>
+        <v>114</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>27605</v>
+      </c>
+      <c r="G45" s="2">
+        <f>F45/F44-1</f>
+        <v>4.9340479720226593E-2</v>
+      </c>
+      <c r="H45">
+        <v>737</v>
+      </c>
+      <c r="I45">
+        <v>15406</v>
+      </c>
+      <c r="J45">
+        <f>H45+I45</f>
+        <v>16143</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>SUM(C32:C45)</f>
         <v>10897</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="51"/>
+      <c r="O45">
+        <f>SUM(D32:D45)</f>
         <v>240828</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="52"/>
-        <v>251725</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="53"/>
-        <v>9.608158182348614E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <f t="shared" ref="P45:P46" si="18">SUM(E32:E45)</f>
+        <v>1596</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>250129</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="17"/>
+        <v>9.620601550550667E-2</v>
+      </c>
+      <c r="S45" s="15">
+        <f>SUM(F$2:F45)</f>
+        <v>282268</v>
+      </c>
+      <c r="T45" s="4">
+        <f>SUM(J$2:J45)+T$40</f>
+        <v>42518</v>
+      </c>
+      <c r="U45">
+        <f>SUM(M$2:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="16">
+        <f>SUM(Q$2:Q45)*(380.82/24894300)</f>
+        <v>29.073529526036079</v>
+      </c>
+      <c r="W45" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44665</v>
       </c>
@@ -3592,31 +5592,77 @@
         <v>19872</v>
       </c>
       <c r="E46">
-        <f t="shared" si="49"/>
-        <v>23072</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.16764674050290418</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="50"/>
+        <v>307</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>22765</v>
+      </c>
+      <c r="G46" s="2">
+        <f>F46/F45-1</f>
+        <v>-0.17533055605868497</v>
+      </c>
+      <c r="H46">
+        <v>543</v>
+      </c>
+      <c r="I46">
+        <v>8070</v>
+      </c>
+      <c r="J46">
+        <f>H46+I46</f>
+        <v>8613</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>SUM(C33:C46)</f>
         <v>13739</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="51"/>
+      <c r="O46">
+        <f>SUM(D33:D46)</f>
         <v>256556</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="52"/>
-        <v>270295</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" si="53"/>
-        <v>7.3770980236369077E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <f t="shared" si="18"/>
+        <v>1903</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>268392</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="17"/>
+        <v>7.301432460850199E-2</v>
+      </c>
+      <c r="S46" s="15">
+        <f>SUM(F$2:F46)</f>
+        <v>305033</v>
+      </c>
+      <c r="T46" s="4">
+        <f>SUM(J$2:J46)+T$40</f>
+        <v>51131</v>
+      </c>
+      <c r="U46">
+        <f>SUM(M$2:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="16">
+        <f>SUM(Q$2:Q46)*(380.82/24894300)</f>
+        <v>33.179250170520959</v>
+      </c>
+      <c r="W46" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44666</v>
       </c>
@@ -3630,31 +5676,77 @@
         <v>19923</v>
       </c>
       <c r="E47">
-        <f t="shared" si="49"/>
-        <v>23513</v>
-      </c>
-      <c r="F47" s="2">
-        <f>E47/E46-1</f>
-        <v>1.9114077669902807E-2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="50"/>
+        <v>922</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>22591</v>
+      </c>
+      <c r="G47" s="2">
+        <f>F47/F46-1</f>
+        <v>-7.6433121019108263E-3</v>
+      </c>
+      <c r="H47">
+        <v>969</v>
+      </c>
+      <c r="I47">
+        <v>19800</v>
+      </c>
+      <c r="J47">
+        <f>H47+I47</f>
+        <v>20769</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>SUM(C34:C47)</f>
         <v>17069</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="51"/>
+      <c r="O47">
+        <f>SUM(D34:D47)</f>
         <v>270428</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="52"/>
-        <v>287497</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" si="53"/>
-        <v>6.3641576795723243E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <f>SUM(E34:E47)</f>
+        <v>2823</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="9"/>
+        <v>284674</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0664997466392423E-2</v>
+      </c>
+      <c r="S47" s="15">
+        <f>SUM(F$2:F47)</f>
+        <v>327624</v>
+      </c>
+      <c r="T47" s="4">
+        <f>SUM(J$2:J47)+T$40</f>
+        <v>71900</v>
+      </c>
+      <c r="U47">
+        <f>SUM(M$2:M47)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="16">
+        <f>SUM(Q$2:Q47)*(380.82/24894300)</f>
+        <v>37.534044347501236</v>
+      </c>
+      <c r="W47" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44667</v>
       </c>
@@ -3668,31 +5760,77 @@
         <v>21582</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E50" si="54">D48+C48</f>
-        <v>24820</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" ref="F48:F49" si="55">E48/E47-1</f>
-        <v>5.558627142431849E-2</v>
-      </c>
-      <c r="G48">
-        <f t="shared" ref="G48:G50" si="56">SUM(C35:C48)</f>
+        <v>1177</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>23643</v>
+      </c>
+      <c r="G48" s="2">
+        <f>F48/F47-1</f>
+        <v>4.6567217033331776E-2</v>
+      </c>
+      <c r="H48">
+        <v>373</v>
+      </c>
+      <c r="I48">
+        <v>10337</v>
+      </c>
+      <c r="J48">
+        <f>H48+I48</f>
+        <v>10710</v>
+      </c>
+      <c r="K48">
+        <v>16</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f>SUM(C35:C48)</f>
         <v>19869</v>
       </c>
-      <c r="H48">
-        <f t="shared" ref="H48:H50" si="57">SUM(D35:D48)</f>
+      <c r="O48">
+        <f>SUM(D35:D48)</f>
         <v>284222</v>
       </c>
-      <c r="I48">
-        <f t="shared" ref="I48:I50" si="58">SUM(E35:E48)</f>
-        <v>304091</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" ref="J48:J50" si="59">I48/I47-1</f>
-        <v>5.7718863153354727E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <f>SUM(E35:E48)</f>
+        <v>3927</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>300164</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" ref="R48:R50" si="19">Q48/Q47-1</f>
+        <v>5.4413118163232355E-2</v>
+      </c>
+      <c r="S48" s="15">
+        <f>SUM(F$2:F48)</f>
+        <v>351267</v>
+      </c>
+      <c r="T48" s="4">
+        <f>SUM(J$2:J48)+T$40</f>
+        <v>82610</v>
+      </c>
+      <c r="U48">
+        <f>SUM(M$2:M48)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="16">
+        <f>SUM(Q$2:Q48)*(380.82/24894300)</f>
+        <v>42.125796454610089</v>
+      </c>
+      <c r="W48" s="17">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44668</v>
       </c>
@@ -3706,31 +5844,77 @@
         <v>19831</v>
       </c>
       <c r="E49">
-        <f t="shared" si="54"/>
-        <v>22248</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="55"/>
-        <v>-0.10362610797743754</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="56"/>
+        <v>853</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>21395</v>
+      </c>
+      <c r="G49" s="2">
+        <f>F49/F48-1</f>
+        <v>-9.5080996489447234E-2</v>
+      </c>
+      <c r="H49">
+        <v>733</v>
+      </c>
+      <c r="I49">
+        <v>19473</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J52" si="20">H49+I49</f>
+        <v>20206</v>
+      </c>
+      <c r="K49">
+        <v>16</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <f>SUM(C36:C49)</f>
         <v>21861</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="57"/>
+      <c r="O49">
+        <f>SUM(D36:D49)</f>
         <v>295472</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="58"/>
-        <v>317333</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="59"/>
-        <v>4.3546175322518588E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <f>SUM(E36:E49)</f>
+        <v>4709</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ref="Q47:Q52" si="21">N49+O49-P49</f>
+        <v>312624</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="19"/>
+        <v>4.1510640849668823E-2</v>
+      </c>
+      <c r="S49" s="15">
+        <f>SUM(F$2:F49)</f>
+        <v>372662</v>
+      </c>
+      <c r="T49" s="4">
+        <f>SUM(J$2:J49)+T$40</f>
+        <v>102816</v>
+      </c>
+      <c r="U49">
+        <f>SUM(M$2:M49)</f>
+        <v>3</v>
+      </c>
+      <c r="V49" s="16">
+        <f>SUM(Q$2:Q49)*(380.82/24894300)</f>
+        <v>46.908155134307854</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="10"/>
+        <v>-0.93604523581431898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44669</v>
       </c>
@@ -3744,31 +5928,77 @@
         <v>17332</v>
       </c>
       <c r="E50">
-        <f t="shared" si="54"/>
-        <v>20416</v>
-      </c>
-      <c r="F50" s="2">
-        <f>E50/E49-1</f>
-        <v>-8.2344480402732789E-2</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="56"/>
+        <v>974</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>19442</v>
+      </c>
+      <c r="G50" s="2">
+        <f>F50/F49-1</f>
+        <v>-9.1283010049076907E-2</v>
+      </c>
+      <c r="H50">
+        <v>1211</v>
+      </c>
+      <c r="I50">
+        <v>22075</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="20"/>
+        <v>23286</v>
+      </c>
+      <c r="K50">
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <f>SUM(C37:C50)</f>
         <v>24677</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="57"/>
+      <c r="O50">
+        <f>SUM(D37:D50)</f>
         <v>299718</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="58"/>
-        <v>324395</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="59"/>
-        <v>2.2254225056959065E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <f>SUM(E37:E50)</f>
+        <v>5679</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="21"/>
+        <v>318716</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="19"/>
+        <v>1.9486667690260528E-2</v>
+      </c>
+      <c r="S50" s="15">
+        <f>SUM(F$2:F50)</f>
+        <v>392104</v>
+      </c>
+      <c r="T50" s="4">
+        <f>SUM(J$2:J50)+T$40</f>
+        <v>126102</v>
+      </c>
+      <c r="U50">
+        <f>SUM(M$2:M50)</f>
+        <v>10</v>
+      </c>
+      <c r="V50" s="16">
+        <f>SUM(Q$2:Q50)*(380.82/24894300)</f>
+        <v>51.783706048372515</v>
+      </c>
+      <c r="W50" s="17">
+        <f t="shared" si="10"/>
+        <v>-0.80688906292920137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44670</v>
       </c>
@@ -3782,31 +6012,77 @@
         <v>16407</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E53" si="60">D51+C51</f>
-        <v>18901</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" ref="F51:F52" si="61">E51/E50-1</f>
-        <v>-7.4206504702194365E-2</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51:G53" si="62">SUM(C38:C51)</f>
+        <v>533</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>18368</v>
+      </c>
+      <c r="G51" s="2">
+        <f>F51/F50-1</f>
+        <v>-5.5241230326098179E-2</v>
+      </c>
+      <c r="H51">
+        <v>1682</v>
+      </c>
+      <c r="I51">
+        <v>25411</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="20"/>
+        <v>27093</v>
+      </c>
+      <c r="K51">
+        <v>52</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <f>SUM(C38:C51)</f>
         <v>26860</v>
       </c>
-      <c r="H51">
-        <f t="shared" ref="H51:H53" si="63">SUM(D38:D51)</f>
+      <c r="O51">
+        <f>SUM(D38:D51)</f>
         <v>299359</v>
       </c>
-      <c r="I51">
-        <f t="shared" ref="I51:I53" si="64">SUM(E38:E51)</f>
-        <v>326219</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" ref="J51:J53" si="65">I51/I50-1</f>
-        <v>5.6227747036792231E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <f>SUM(E38:E51)</f>
+        <v>6172</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="21"/>
+        <v>320047</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" ref="R51:R53" si="22">Q51/Q50-1</f>
+        <v>4.1761317285609056E-3</v>
+      </c>
+      <c r="S51" s="15">
+        <f>SUM(F$2:F51)</f>
+        <v>410472</v>
+      </c>
+      <c r="T51" s="4">
+        <f>SUM(J$2:J51)+T$40</f>
+        <v>153195</v>
+      </c>
+      <c r="U51">
+        <f>SUM(M$2:M51)</f>
+        <v>17</v>
+      </c>
+      <c r="V51" s="16">
+        <f>SUM(Q$2:Q51)*(380.82/24894300)</f>
+        <v>56.679617905303623</v>
+      </c>
+      <c r="W51" s="17">
+        <f t="shared" si="10"/>
+        <v>-0.70006854971389498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44671</v>
       </c>
@@ -3820,31 +6096,77 @@
         <v>15861</v>
       </c>
       <c r="E52">
-        <f t="shared" si="60"/>
-        <v>18495</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="61"/>
-        <v>-2.1480344955293385E-2</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="62"/>
+        <v>459</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>18036</v>
+      </c>
+      <c r="G52" s="2">
+        <f>F52/F51-1</f>
+        <v>-1.8074912891986039E-2</v>
+      </c>
+      <c r="H52">
+        <v>1173</v>
+      </c>
+      <c r="I52">
+        <v>19124</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="20"/>
+        <v>20297</v>
+      </c>
+      <c r="K52">
+        <v>139</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>8</v>
+      </c>
+      <c r="N52">
+        <f>SUM(C39:C52)</f>
         <v>29172</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="63"/>
+      <c r="O52">
+        <f>SUM(D39:D52)</f>
         <v>295560</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="64"/>
-        <v>324732</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="65"/>
-        <v>-4.5582875307692561E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <f>SUM(E39:E52)</f>
+        <v>6616</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="21"/>
+        <v>318116</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="22"/>
+        <v>-6.0334888313279267E-3</v>
+      </c>
+      <c r="S52" s="15">
+        <f>SUM(F$2:F52)</f>
+        <v>428508</v>
+      </c>
+      <c r="T52" s="4">
+        <f>SUM(J$2:J52)+T$40</f>
+        <v>173492</v>
+      </c>
+      <c r="U52">
+        <f>SUM(M$2:M52)</f>
+        <v>25</v>
+      </c>
+      <c r="V52" s="16">
+        <f>SUM(Q$2:Q52)*(380.82/24894300)</f>
+        <v>61.545990332726767</v>
+      </c>
+      <c r="W52" s="17">
+        <f t="shared" si="10"/>
+        <v>-0.59379969572597202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44672</v>
       </c>
@@ -3858,39 +6180,86 @@
         <v>15698</v>
       </c>
       <c r="E53">
-        <f t="shared" si="60"/>
-        <v>17629</v>
-      </c>
-      <c r="F53" s="2">
-        <f>E53/E52-1</f>
-        <v>-4.6823465801568043E-2</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="62"/>
+        <v>143</v>
+      </c>
+      <c r="F53">
+        <f>D53+C53-E53</f>
+        <v>17486</v>
+      </c>
+      <c r="G53" s="2">
+        <f>F53/F52-1</f>
+        <v>-3.049456642271009E-2</v>
+      </c>
+      <c r="H53">
+        <v>1732</v>
+      </c>
+      <c r="I53">
+        <v>26256</v>
+      </c>
+      <c r="J53">
+        <f>H53+I53</f>
+        <v>27988</v>
+      </c>
+      <c r="K53">
+        <v>160</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <f>SUM(C40:C53)</f>
         <v>30279</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="63"/>
+      <c r="O53">
+        <f>SUM(D40:D53)</f>
         <v>290860</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="64"/>
-        <v>321139</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="65"/>
-        <v>-1.1064508579382348E-2</v>
+      <c r="P53">
+        <f>SUM(E40:E53)</f>
+        <v>6436</v>
+      </c>
+      <c r="Q53">
+        <f>N53+O53-P53</f>
+        <v>314703</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="22"/>
+        <v>-1.0728790755573425E-2</v>
+      </c>
+      <c r="S53" s="15">
+        <f>SUM(F$2:F53)</f>
+        <v>445994</v>
+      </c>
+      <c r="T53" s="4">
+        <f>SUM(J$2:J53)+T$40</f>
+        <v>201480</v>
+      </c>
+      <c r="U53">
+        <f>SUM(M$2:M53)</f>
+        <v>36</v>
+      </c>
+      <c r="V53" s="16">
+        <f>SUM(Q$2:Q53)*(380.82/24894300)</f>
+        <v>66.360152468637395</v>
+      </c>
+      <c r="W53" s="17">
+        <f>(U53-V53)/V53</f>
+        <v>-0.45750576722960318</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J30" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
+  <autoFilter ref="A1:R30" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R30">
       <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3913,22 +6282,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3955,14 +6324,14 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <f>AVERAGE(A:A)</f>
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <f>SUM(E:E)</f>
@@ -3993,13 +6362,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <f>SUM(F:F)</f>
@@ -4054,14 +6423,14 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <f>SQRT($M$2/(COUNT(A:A)-1)*(1/COUNT(A:A)+($K$3-$K$2)^2/$M$3))</f>
         <v>38.485219671321524</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="5">
         <f>6.4282*EXP(0.2318*K3)</f>
@@ -4092,14 +6461,14 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" s="5">
         <f>M5-TINV(0.001,COUNT(A:A))*K5</f>
         <v>6591.6180931772624</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="5">
         <f>M5+TINV(0.001,COUNT(A:A))*K5</f>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BFD64C-FD3B-43B2-BEDF-AD10DE6A9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF80F9-B378-426C-A477-A214ACA26BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="-13560" windowWidth="21600" windowHeight="11385" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -1981,11 +1981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/F2-1</f>
+        <f t="shared" ref="G3:G34" si="1">F3/F2-1</f>
         <v>3</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2197,11 +2197,11 @@
         <v>18</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q46" si="1">N3+O3</f>
+        <f t="shared" ref="Q3:Q32" si="2">N3+O3</f>
         <v>10</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R29" si="2">Q3/Q2-1</f>
+        <f t="shared" ref="R3:R29" si="3">Q3/Q2-1</f>
         <v>4</v>
       </c>
       <c r="S3" s="15">
@@ -2242,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/F3-1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2275,11 +2275,11 @@
         <v>18</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="S4" s="15">
@@ -2320,7 +2320,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/F4-1</f>
+        <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2353,11 +2353,11 @@
         <v>18</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73076923076923084</v>
       </c>
       <c r="S5" s="15">
@@ -2398,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/F5-1</f>
+        <f t="shared" si="1"/>
         <v>0.47368421052631571</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2431,11 +2431,11 @@
         <v>18</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62222222222222223</v>
       </c>
       <c r="S6" s="15">
@@ -2476,7 +2476,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/F6-1</f>
+        <f t="shared" si="1"/>
         <v>0.71428571428571419</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2509,11 +2509,11 @@
         <v>18</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65753424657534243</v>
       </c>
       <c r="S7" s="15">
@@ -2554,7 +2554,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/F7-1</f>
+        <f t="shared" si="1"/>
         <v>0.14583333333333326</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2587,11 +2587,11 @@
         <v>18</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="S8" s="15">
@@ -2632,7 +2632,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/F8-1</f>
+        <f t="shared" si="1"/>
         <v>0.18181818181818188</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -2665,11 +2665,11 @@
         <v>18</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36931818181818188</v>
       </c>
       <c r="S9" s="15">
@@ -2710,7 +2710,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/F9-1</f>
+        <f t="shared" si="1"/>
         <v>0.23076923076923084</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -2743,11 +2743,11 @@
         <v>18</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>321</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3319502074688796</v>
       </c>
       <c r="S10" s="15">
@@ -2788,7 +2788,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/F10-1</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -2821,11 +2821,11 @@
         <v>18</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23364485981308403</v>
       </c>
       <c r="S11" s="15">
@@ -2866,7 +2866,7 @@
         <v>83</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/F11-1</f>
+        <f t="shared" si="1"/>
         <v>0.10666666666666669</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -2899,11 +2899,11 @@
         <v>18</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>479</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20959595959595956</v>
       </c>
       <c r="S12" s="15">
@@ -2944,7 +2944,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/F12-1</f>
+        <f t="shared" si="1"/>
         <v>-0.2168674698795181</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2977,11 +2977,11 @@
         <v>18</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13569937369519836</v>
       </c>
       <c r="S13" s="15">
@@ -3022,7 +3022,7 @@
         <v>169</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/F13-1</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -3055,11 +3055,11 @@
         <v>18</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>713</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31066176470588225</v>
       </c>
       <c r="S14" s="15">
@@ -3070,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="U14">
-        <f>SUM(M1:M14)</f>
+        <f t="shared" ref="U14:U35" si="4">SUM(M1:M14)</f>
         <v>0</v>
       </c>
       <c r="V14" s="7" t="s">
@@ -3101,7 +3101,7 @@
         <v>139</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/F14-1</f>
+        <f t="shared" si="1"/>
         <v>-0.1775147928994083</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -3134,11 +3134,11 @@
         <v>18</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>852</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19495091164095379</v>
       </c>
       <c r="S15" s="15">
@@ -3149,7 +3149,7 @@
         <v>18</v>
       </c>
       <c r="U15">
-        <f>SUM(M2:M15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V15" s="7" t="s">
@@ -3180,7 +3180,7 @@
         <v>202</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/F15-1</f>
+        <f t="shared" si="1"/>
         <v>0.45323741007194251</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -3202,22 +3202,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>SUM(C3:C16)</f>
+        <f t="shared" ref="N16:N53" si="5">SUM(C3:C16)</f>
         <v>94</v>
       </c>
       <c r="O16">
-        <f>SUM(D3:D16)</f>
+        <f t="shared" ref="O16:O53" si="6">SUM(D3:D16)</f>
         <v>958</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1052</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23474178403755874</v>
       </c>
       <c r="S16" s="15">
@@ -3228,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="U16">
-        <f>SUM(M3:M16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V16" s="7" t="s">
@@ -3259,7 +3259,7 @@
         <v>158</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/F16-1</f>
+        <f t="shared" si="1"/>
         <v>-0.21782178217821779</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -3281,22 +3281,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f>SUM(C4:C17)</f>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="O17">
-        <f>SUM(D4:D17)</f>
+        <f t="shared" si="6"/>
         <v>1103</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1202</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14258555133079853</v>
       </c>
       <c r="S17" s="15">
@@ -3307,7 +3307,7 @@
         <v>18</v>
       </c>
       <c r="U17">
-        <f>SUM(M4:M17)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V17" s="7" t="s">
@@ -3338,7 +3338,7 @@
         <v>260</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/F17-1</f>
+        <f t="shared" si="1"/>
         <v>0.64556962025316467</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -3360,22 +3360,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f>SUM(C5:C18)</f>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="O18">
-        <f>SUM(D5:D18)</f>
+        <f t="shared" si="6"/>
         <v>1292</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1446</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2029950083194676</v>
       </c>
       <c r="S18" s="15">
@@ -3386,7 +3386,7 @@
         <v>18</v>
       </c>
       <c r="U18">
-        <f>SUM(M5:M18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V18" s="7" t="s">
@@ -3417,7 +3417,7 @@
         <v>374</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/F18-1</f>
+        <f t="shared" si="1"/>
         <v>0.43846153846153846</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -3439,22 +3439,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f>SUM(C6:C19)</f>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="O19">
-        <f>SUM(D6:D19)</f>
+        <f t="shared" si="6"/>
         <v>1642</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1801</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2455048409405256</v>
       </c>
       <c r="S19" s="15">
@@ -3465,7 +3465,7 @@
         <v>18</v>
       </c>
       <c r="U19">
-        <f>SUM(M6:M19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V19" s="7" t="s">
@@ -3496,7 +3496,7 @@
         <v>509</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/F19-1</f>
+        <f t="shared" si="1"/>
         <v>0.3609625668449199</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -3518,22 +3518,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f>SUM(C7:C20)</f>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="O20">
-        <f>SUM(D7:D20)</f>
+        <f t="shared" si="6"/>
         <v>2106</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2282</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26707384786229871</v>
       </c>
       <c r="S20" s="15">
@@ -3544,7 +3544,7 @@
         <v>18</v>
       </c>
       <c r="U20">
-        <f>SUM(M7:M20)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V20" s="7" t="s">
@@ -3575,7 +3575,7 @@
         <v>758</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/F20-1</f>
+        <f t="shared" si="1"/>
         <v>0.48919449901768175</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -3597,22 +3597,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <f>SUM(C8:C21)</f>
+        <f t="shared" si="5"/>
         <v>197</v>
       </c>
       <c r="O21">
-        <f>SUM(D8:D21)</f>
+        <f t="shared" si="6"/>
         <v>2795</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2992</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31113058720420694</v>
       </c>
       <c r="S21" s="15">
@@ -3623,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="U21">
-        <f>SUM(M8:M21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V21" s="7" t="s">
@@ -3654,7 +3654,7 @@
         <v>896</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/F21-1</f>
+        <f t="shared" si="1"/>
         <v>0.18205804749340371</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -3676,22 +3676,22 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f>SUM(C9:C22)</f>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="O22">
-        <f>SUM(D9:D22)</f>
+        <f t="shared" si="6"/>
         <v>3609</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3833</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28108288770053469</v>
       </c>
       <c r="S22" s="15">
@@ -3702,7 +3702,7 @@
         <v>18</v>
       </c>
       <c r="U22">
-        <f>SUM(M9:M22)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V22" s="7" t="s">
@@ -3733,7 +3733,7 @@
         <v>981</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/F22-1</f>
+        <f t="shared" si="1"/>
         <v>9.4866071428571397E-2</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -3755,22 +3755,22 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f>SUM(C10:C23)</f>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="O23">
-        <f>SUM(D10:D23)</f>
+        <f t="shared" si="6"/>
         <v>4524</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4749</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23897730237411952</v>
       </c>
       <c r="S23" s="15">
@@ -3781,7 +3781,7 @@
         <v>18</v>
       </c>
       <c r="U23">
-        <f>SUM(M10:M23)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V23" s="7" t="s">
@@ -3812,7 +3812,7 @@
         <v>983</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/F23-1</f>
+        <f t="shared" si="1"/>
         <v>2.0387359836901986E-3</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -3834,22 +3834,22 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f>SUM(C11:C24)</f>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="O24">
-        <f>SUM(D11:D24)</f>
+        <f t="shared" si="6"/>
         <v>5427</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5652</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19014529374605171</v>
       </c>
       <c r="S24" s="15">
@@ -3860,7 +3860,7 @@
         <v>18</v>
       </c>
       <c r="U24">
-        <f>SUM(M11:M24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V24" s="7" t="s">
@@ -3891,7 +3891,7 @@
         <v>1609</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/F24-1</f>
+        <f t="shared" si="1"/>
         <v>0.63682604272634791</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -3913,22 +3913,22 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f>SUM(C12:C25)</f>
+        <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="O25">
-        <f>SUM(D12:D25)</f>
+        <f t="shared" si="6"/>
         <v>6943</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7186</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27140835102618532</v>
       </c>
       <c r="S25" s="15">
@@ -3939,7 +3939,7 @@
         <v>18</v>
       </c>
       <c r="U25">
-        <f>SUM(M12:M25)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V25" s="7" t="s">
@@ -3970,7 +3970,7 @@
         <v>2269</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/F25-1</f>
+        <f t="shared" si="1"/>
         <v>0.41019266625233075</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -3992,22 +3992,22 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f>SUM(C13:C26)</f>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
       <c r="O26">
-        <f>SUM(D13:D26)</f>
+        <f t="shared" si="6"/>
         <v>9096</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9372</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30420261619816302</v>
       </c>
       <c r="S26" s="15">
@@ -4018,7 +4018,7 @@
         <v>18</v>
       </c>
       <c r="U26">
-        <f>SUM(M13:M26)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V26" s="7" t="s">
@@ -4049,7 +4049,7 @@
         <v>2676</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/F26-1</f>
+        <f t="shared" si="1"/>
         <v>0.17937417364477737</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -4071,22 +4071,22 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <f>SUM(C14:C27)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="O27">
-        <f>SUM(D14:D27)</f>
+        <f t="shared" si="6"/>
         <v>11663</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11983</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2785958173282117</v>
       </c>
       <c r="S27" s="15">
@@ -4097,7 +4097,7 @@
         <v>18</v>
       </c>
       <c r="U27">
-        <f>SUM(M14:M27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V27" s="7" t="s">
@@ -4128,7 +4128,7 @@
         <v>3500</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/F27-1</f>
+        <f t="shared" si="1"/>
         <v>0.30792227204783251</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -4150,18 +4150,18 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f>SUM(C15:C28)</f>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="O28">
-        <f>SUM(D15:D28)</f>
+        <f t="shared" si="6"/>
         <v>14985</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15314</v>
       </c>
       <c r="R28" s="2">
@@ -4176,7 +4176,7 @@
         <v>18</v>
       </c>
       <c r="U28">
-        <f>SUM(M15:M28)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V28" s="7" t="s">
@@ -4207,7 +4207,7 @@
         <v>4477</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/F28-1</f>
+        <f t="shared" si="1"/>
         <v>0.27914285714285714</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -4229,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f>SUM(C16:C29)</f>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="O29">
-        <f>SUM(D16:D29)</f>
+        <f t="shared" si="6"/>
         <v>19236</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19652</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28327021026511678</v>
       </c>
       <c r="S29" s="15">
@@ -4255,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="U29">
-        <f>SUM(M16:M29)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V29" s="7" t="s">
@@ -4286,7 +4286,7 @@
         <v>5982</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/F29-1</f>
+        <f t="shared" si="1"/>
         <v>0.3361626088898817</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -4308,22 +4308,22 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f>SUM(C17:C30)</f>
+        <f t="shared" si="5"/>
         <v>737</v>
       </c>
       <c r="O30">
-        <f>SUM(D17:D30)</f>
+        <f t="shared" si="6"/>
         <v>24695</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25432</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30:R31" si="3">Q30/Q29-1</f>
+        <f t="shared" ref="R30:R31" si="7">Q30/Q29-1</f>
         <v>0.29411764705882359</v>
       </c>
       <c r="S30" s="15">
@@ -4334,7 +4334,7 @@
         <v>18</v>
       </c>
       <c r="U30">
-        <f>SUM(M17:M30)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V30" s="7" t="s">
@@ -4361,11 +4361,11 @@
         <v>18</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31" si="4">D31+C31</f>
+        <f t="shared" ref="F31" si="8">D31+C31</f>
         <v>5653</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/F30-1</f>
+        <f t="shared" si="1"/>
         <v>-5.4998328318288214E-2</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -4387,22 +4387,22 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f>SUM(C18:C31)</f>
+        <f t="shared" si="5"/>
         <v>1084</v>
       </c>
       <c r="O31">
-        <f>SUM(D18:D31)</f>
+        <f t="shared" si="6"/>
         <v>29843</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30927</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21606637307329346</v>
       </c>
       <c r="S31" s="15">
@@ -4413,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="U31">
-        <f>SUM(M18:M31)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V31" s="7" t="s">
@@ -4440,11 +4440,11 @@
         <v>18</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F35" si="5">D32+C32</f>
+        <f t="shared" ref="F32" si="9">D32+C32</f>
         <v>4502</v>
       </c>
       <c r="G32" s="2">
-        <f>F32/F31-1</f>
+        <f t="shared" si="1"/>
         <v>-0.20360870334335746</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -4466,22 +4466,22 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f>SUM(C19:C32)</f>
+        <f t="shared" si="5"/>
         <v>1385</v>
       </c>
       <c r="O32">
-        <f>SUM(D19:D32)</f>
+        <f t="shared" si="6"/>
         <v>33784</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35169</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:R34" si="6">Q32/Q31-1</f>
+        <f t="shared" ref="R32:R34" si="10">Q32/Q31-1</f>
         <v>0.13716170336599087</v>
       </c>
       <c r="S32" s="15">
@@ -4492,7 +4492,7 @@
         <v>18</v>
       </c>
       <c r="U32">
-        <f>SUM(M19:M32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V32" s="7" t="s">
@@ -4519,11 +4519,11 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F52" si="7">D33+C33-E33</f>
+        <f t="shared" ref="F33:F52" si="11">D33+C33-E33</f>
         <v>6309</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/F32-1</f>
+        <f t="shared" si="1"/>
         <v>0.4013771657041314</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -4545,23 +4545,23 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f>SUM(C20:C33)</f>
+        <f t="shared" si="5"/>
         <v>1637</v>
       </c>
       <c r="O33">
-        <f>SUM(D20:D33)</f>
+        <f t="shared" si="6"/>
         <v>39469</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33:P44" si="8">SUM(E20:E33)</f>
+        <f t="shared" ref="P33:P44" si="12">SUM(E20:E33)</f>
         <v>2</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:Q48" si="9">N33+O33-P33</f>
+        <f t="shared" ref="Q33:Q48" si="13">N33+O33-P33</f>
         <v>41104</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.16875657539310196</v>
       </c>
       <c r="S33" s="15">
@@ -4572,7 +4572,7 @@
         <v>18</v>
       </c>
       <c r="U33">
-        <f>SUM(M20:M33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V33" s="16">
@@ -4580,7 +4580,7 @@
         <v>3.444181219797303</v>
       </c>
       <c r="W33" s="17">
-        <f t="shared" ref="W5:W52" si="10">(U33-V33)/V33</f>
+        <f t="shared" ref="W33:W52" si="14">(U33-V33)/V33</f>
         <v>-1</v>
       </c>
     </row>
@@ -4601,11 +4601,11 @@
         <v>73</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8153</v>
       </c>
       <c r="G34" s="2">
-        <f>F34/F33-1</f>
+        <f t="shared" si="1"/>
         <v>0.29228086860041214</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -4627,23 +4627,23 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f>SUM(C21:C34)</f>
+        <f t="shared" si="5"/>
         <v>2058</v>
       </c>
       <c r="O34">
-        <f>SUM(D21:D34)</f>
+        <f t="shared" si="6"/>
         <v>46765</v>
       </c>
       <c r="P34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48748</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.18596730245231607</v>
       </c>
       <c r="S34" s="15">
@@ -4654,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="U34">
-        <f>SUM(M21:M34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V34" s="16">
@@ -4662,7 +4662,7 @@
         <v>4.1899026644653592</v>
       </c>
       <c r="W34" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -4683,11 +4683,11 @@
         <v>71</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8935</v>
       </c>
       <c r="G35" s="2">
-        <f>F35/F34-1</f>
+        <f t="shared" ref="G35:G66" si="15">F35/F34-1</f>
         <v>9.5915613884459683E-2</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -4709,23 +4709,23 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f>SUM(C22:C35)</f>
+        <f t="shared" si="5"/>
         <v>2459</v>
       </c>
       <c r="O35">
-        <f>SUM(D22:D35)</f>
+        <f t="shared" si="6"/>
         <v>54612</v>
       </c>
       <c r="P35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>56925</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" ref="R35" si="11">Q35/Q34-1</f>
+        <f t="shared" ref="R35" si="16">Q35/Q34-1</f>
         <v>0.16774021498317881</v>
       </c>
       <c r="S35" s="15">
@@ -4736,7 +4736,7 @@
         <v>18</v>
       </c>
       <c r="U35">
-        <f>SUM(M22:M35)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V35" s="16">
@@ -4744,7 +4744,7 @@
         <v>5.060711584579602</v>
       </c>
       <c r="W35" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -4765,11 +4765,11 @@
         <v>4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13350</v>
       </c>
       <c r="G36" s="2">
-        <f>F36/F35-1</f>
+        <f t="shared" si="15"/>
         <v>0.49412423055400101</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -4791,23 +4791,23 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f>SUM(C23:C36)</f>
+        <f t="shared" si="5"/>
         <v>2696</v>
       </c>
       <c r="O36">
-        <f>SUM(D23:D36)</f>
+        <f t="shared" si="6"/>
         <v>66833</v>
       </c>
       <c r="P36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>69379</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" ref="R36:R37" si="12">Q36/Q35-1</f>
+        <f t="shared" ref="R36:R37" si="17">Q36/Q35-1</f>
         <v>0.21877909530083439</v>
       </c>
       <c r="S36" s="15">
@@ -4826,7 +4826,7 @@
         <v>6.1220352924163359</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -4847,11 +4847,11 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17037</v>
       </c>
       <c r="G37" s="2">
-        <f>F37/F36-1</f>
+        <f t="shared" si="15"/>
         <v>0.27617977528089899</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -4873,23 +4873,23 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f>SUM(C24:C37)</f>
+        <f t="shared" si="5"/>
         <v>3003</v>
       </c>
       <c r="O37">
-        <f>SUM(D24:D37)</f>
+        <f t="shared" si="6"/>
         <v>82622</v>
       </c>
       <c r="P37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>85435</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.23142449444356372</v>
       </c>
       <c r="S37" s="15">
@@ -4908,7 +4908,7 @@
         <v>7.4289753027801542</v>
       </c>
       <c r="W37" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -4929,11 +4929,11 @@
         <v>15</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19967</v>
       </c>
       <c r="G38" s="2">
-        <f>F38/F37-1</f>
+        <f t="shared" si="15"/>
         <v>0.17197863473616248</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -4955,23 +4955,23 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f>SUM(C25:C38)</f>
+        <f t="shared" si="5"/>
         <v>3321</v>
       </c>
       <c r="O38">
-        <f>SUM(D25:D38)</f>
+        <f t="shared" si="6"/>
         <v>101303</v>
       </c>
       <c r="P38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>205</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>104419</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" ref="R38:R39" si="13">Q38/Q37-1</f>
+        <f t="shared" ref="R38:R39" si="18">Q38/Q37-1</f>
         <v>0.22220401474805418</v>
       </c>
       <c r="S38" s="15">
@@ -4990,7 +4990,7 @@
         <v>9.0263226304816762</v>
       </c>
       <c r="W38" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5011,11 +5011,11 @@
         <v>323</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20899</v>
       </c>
       <c r="G39" s="2">
-        <f>F39/F38-1</f>
+        <f t="shared" si="15"/>
         <v>4.6677017078178951E-2</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -5037,23 +5037,23 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f>SUM(C26:C39)</f>
+        <f t="shared" si="5"/>
         <v>4116</v>
       </c>
       <c r="O39">
-        <f>SUM(D26:D39)</f>
+        <f t="shared" si="6"/>
         <v>120121</v>
       </c>
       <c r="P39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>528</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>123709</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.18473649431616845</v>
       </c>
       <c r="S39" s="15">
@@ -5072,7 +5072,7 @@
         <v>10.918758303708078</v>
       </c>
       <c r="W39" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5093,11 +5093,11 @@
         <v>420</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23204</v>
       </c>
       <c r="G40" s="2">
-        <f>F40/F39-1</f>
+        <f t="shared" si="15"/>
         <v>0.11029235848605201</v>
       </c>
       <c r="H40">
@@ -5107,7 +5107,7 @@
         <v>18</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J41" si="14">H40</f>
+        <f t="shared" ref="J40:J41" si="19">H40</f>
         <v>110</v>
       </c>
       <c r="K40">
@@ -5120,23 +5120,23 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f>SUM(C27:C40)</f>
+        <f t="shared" si="5"/>
         <v>5093</v>
       </c>
       <c r="O40">
-        <f>SUM(D27:D40)</f>
+        <f t="shared" si="6"/>
         <v>140499</v>
       </c>
       <c r="P40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>948</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>144644</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" ref="R40:R41" si="15">Q40/Q39-1</f>
+        <f t="shared" ref="R40:R41" si="20">Q40/Q39-1</f>
         <v>0.16922778455892451</v>
       </c>
       <c r="S40" s="15">
@@ -5155,7 +5155,7 @@
         <v>13.13144667333486</v>
       </c>
       <c r="W40" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5176,11 +5176,11 @@
         <v>191</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24752</v>
       </c>
       <c r="G41" s="2">
-        <f>F41/F40-1</f>
+        <f t="shared" si="15"/>
         <v>6.6712635752456562E-2</v>
       </c>
       <c r="H41">
@@ -5190,7 +5190,7 @@
         <v>18</v>
       </c>
       <c r="J41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>217</v>
       </c>
       <c r="K41">
@@ -5203,23 +5203,23 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f>SUM(C28:C41)</f>
+        <f t="shared" si="5"/>
         <v>6054</v>
       </c>
       <c r="O41">
-        <f>SUM(D28:D41)</f>
+        <f t="shared" si="6"/>
         <v>161805</v>
       </c>
       <c r="P41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1139</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>166720</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.15262299162080684</v>
       </c>
       <c r="S41" s="15">
@@ -5238,7 +5238,7 @@
         <v>15.681842161458647</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5259,11 +5259,11 @@
         <v>47</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26040</v>
       </c>
       <c r="G42" s="2">
-        <f>F42/F41-1</f>
+        <f t="shared" si="15"/>
         <v>5.2036199095022662E-2</v>
       </c>
       <c r="H42">
@@ -5273,7 +5273,7 @@
         <v>3000</v>
       </c>
       <c r="J42">
-        <f>H42+I42</f>
+        <f t="shared" ref="J42:J48" si="21">H42+I42</f>
         <v>3291</v>
       </c>
       <c r="K42">
@@ -5286,23 +5286,23 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <f>SUM(C29:C42)</f>
+        <f t="shared" si="5"/>
         <v>6918</v>
       </c>
       <c r="O42">
-        <f>SUM(D29:D42)</f>
+        <f t="shared" si="6"/>
         <v>183528</v>
       </c>
       <c r="P42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1186</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>189260</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42:R43" si="16">Q42/Q41-1</f>
+        <f t="shared" ref="R42:R43" si="22">Q42/Q41-1</f>
         <v>0.13519673704414581</v>
       </c>
       <c r="S42" s="15">
@@ -5322,7 +5322,7 @@
         <v>18.577042797748881</v>
       </c>
       <c r="W42" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5343,11 +5343,11 @@
         <v>273</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23069</v>
       </c>
       <c r="G43" s="2">
-        <f>F43/F42-1</f>
+        <f t="shared" si="15"/>
         <v>-0.11409370199692781</v>
       </c>
       <c r="H43">
@@ -5357,7 +5357,7 @@
         <v>6000</v>
       </c>
       <c r="J43">
-        <f>H43+I43</f>
+        <f t="shared" si="21"/>
         <v>6379</v>
       </c>
       <c r="K43">
@@ -5370,23 +5370,23 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <f>SUM(C30:C43)</f>
+        <f t="shared" si="5"/>
         <v>7816</v>
       </c>
       <c r="O43">
-        <f>SUM(D30:D43)</f>
+        <f t="shared" si="6"/>
         <v>201495</v>
       </c>
       <c r="P43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1459</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>207852</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>9.8235231956039337E-2</v>
       </c>
       <c r="S43" s="15">
@@ -5406,7 +5406,7 @@
         <v>21.756654140104359</v>
       </c>
       <c r="W43" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5427,11 +5427,11 @@
         <v>23</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26307</v>
       </c>
       <c r="G44" s="2">
-        <f>F44/F43-1</f>
+        <f t="shared" si="15"/>
         <v>0.14036152412328229</v>
       </c>
       <c r="H44">
@@ -5441,7 +5441,7 @@
         <v>6044</v>
       </c>
       <c r="J44">
-        <f>H44+I44</f>
+        <f t="shared" si="21"/>
         <v>6378</v>
       </c>
       <c r="K44">
@@ -5454,23 +5454,23 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f>SUM(C31:C44)</f>
+        <f t="shared" si="5"/>
         <v>8679</v>
       </c>
       <c r="O44">
-        <f>SUM(D31:D44)</f>
+        <f t="shared" si="6"/>
         <v>220980</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1482</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>228177</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" ref="R44:R47" si="17">Q44/Q43-1</f>
+        <f t="shared" ref="R44:R47" si="23">Q44/Q43-1</f>
         <v>9.7785924600196195E-2</v>
       </c>
       <c r="S44" s="15">
@@ -5490,7 +5490,7 @@
         <v>25.247186717441341</v>
       </c>
       <c r="W44" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5511,11 +5511,11 @@
         <v>114</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>27605</v>
       </c>
       <c r="G45" s="2">
-        <f>F45/F44-1</f>
+        <f t="shared" si="15"/>
         <v>4.9340479720226593E-2</v>
       </c>
       <c r="H45">
@@ -5525,7 +5525,7 @@
         <v>15406</v>
       </c>
       <c r="J45">
-        <f>H45+I45</f>
+        <f t="shared" si="21"/>
         <v>16143</v>
       </c>
       <c r="K45">
@@ -5538,23 +5538,23 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f>SUM(C32:C45)</f>
+        <f t="shared" si="5"/>
         <v>10897</v>
       </c>
       <c r="O45">
-        <f>SUM(D32:D45)</f>
+        <f t="shared" si="6"/>
         <v>240828</v>
       </c>
       <c r="P45">
-        <f t="shared" ref="P45:P46" si="18">SUM(E32:E45)</f>
+        <f t="shared" ref="P45:P46" si="24">SUM(E32:E45)</f>
         <v>1596</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>250129</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>9.620601550550667E-2</v>
       </c>
       <c r="S45" s="15">
@@ -5574,7 +5574,7 @@
         <v>29.073529526036079</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5595,11 +5595,11 @@
         <v>307</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22765</v>
       </c>
       <c r="G46" s="2">
-        <f>F46/F45-1</f>
+        <f t="shared" si="15"/>
         <v>-0.17533055605868497</v>
       </c>
       <c r="H46">
@@ -5609,7 +5609,7 @@
         <v>8070</v>
       </c>
       <c r="J46">
-        <f>H46+I46</f>
+        <f t="shared" si="21"/>
         <v>8613</v>
       </c>
       <c r="K46">
@@ -5622,23 +5622,23 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <f>SUM(C33:C46)</f>
+        <f t="shared" si="5"/>
         <v>13739</v>
       </c>
       <c r="O46">
-        <f>SUM(D33:D46)</f>
+        <f t="shared" si="6"/>
         <v>256556</v>
       </c>
       <c r="P46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1903</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>268392</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>7.301432460850199E-2</v>
       </c>
       <c r="S46" s="15">
@@ -5658,7 +5658,7 @@
         <v>33.179250170520959</v>
       </c>
       <c r="W46" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5679,11 +5679,11 @@
         <v>922</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22591</v>
       </c>
       <c r="G47" s="2">
-        <f>F47/F46-1</f>
+        <f t="shared" si="15"/>
         <v>-7.6433121019108263E-3</v>
       </c>
       <c r="H47">
@@ -5693,7 +5693,7 @@
         <v>19800</v>
       </c>
       <c r="J47">
-        <f>H47+I47</f>
+        <f t="shared" si="21"/>
         <v>20769</v>
       </c>
       <c r="K47">
@@ -5706,23 +5706,23 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <f>SUM(C34:C47)</f>
+        <f t="shared" si="5"/>
         <v>17069</v>
       </c>
       <c r="O47">
-        <f>SUM(D34:D47)</f>
+        <f t="shared" si="6"/>
         <v>270428</v>
       </c>
       <c r="P47">
-        <f>SUM(E34:E47)</f>
+        <f t="shared" ref="P47:P53" si="25">SUM(E34:E47)</f>
         <v>2823</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>284674</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6.0664997466392423E-2</v>
       </c>
       <c r="S47" s="15">
@@ -5742,7 +5742,7 @@
         <v>37.534044347501236</v>
       </c>
       <c r="W47" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5763,11 +5763,11 @@
         <v>1177</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23643</v>
       </c>
       <c r="G48" s="2">
-        <f>F48/F47-1</f>
+        <f t="shared" si="15"/>
         <v>4.6567217033331776E-2</v>
       </c>
       <c r="H48">
@@ -5777,7 +5777,7 @@
         <v>10337</v>
       </c>
       <c r="J48">
-        <f>H48+I48</f>
+        <f t="shared" si="21"/>
         <v>10710</v>
       </c>
       <c r="K48">
@@ -5790,23 +5790,23 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f>SUM(C35:C48)</f>
+        <f t="shared" si="5"/>
         <v>19869</v>
       </c>
       <c r="O48">
-        <f>SUM(D35:D48)</f>
+        <f t="shared" si="6"/>
         <v>284222</v>
       </c>
       <c r="P48">
-        <f>SUM(E35:E48)</f>
+        <f t="shared" si="25"/>
         <v>3927</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>300164</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" ref="R48:R50" si="19">Q48/Q47-1</f>
+        <f t="shared" ref="R48:R50" si="26">Q48/Q47-1</f>
         <v>5.4413118163232355E-2</v>
       </c>
       <c r="S48" s="15">
@@ -5826,7 +5826,7 @@
         <v>42.125796454610089</v>
       </c>
       <c r="W48" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
     </row>
@@ -5847,11 +5847,11 @@
         <v>853</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21395</v>
       </c>
       <c r="G49" s="2">
-        <f>F49/F48-1</f>
+        <f t="shared" si="15"/>
         <v>-9.5080996489447234E-2</v>
       </c>
       <c r="H49">
@@ -5861,7 +5861,7 @@
         <v>19473</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:J52" si="20">H49+I49</f>
+        <f t="shared" ref="J49:J52" si="27">H49+I49</f>
         <v>20206</v>
       </c>
       <c r="K49">
@@ -5874,23 +5874,23 @@
         <v>3</v>
       </c>
       <c r="N49">
-        <f>SUM(C36:C49)</f>
+        <f t="shared" si="5"/>
         <v>21861</v>
       </c>
       <c r="O49">
-        <f>SUM(D36:D49)</f>
+        <f t="shared" si="6"/>
         <v>295472</v>
       </c>
       <c r="P49">
-        <f>SUM(E36:E49)</f>
+        <f t="shared" si="25"/>
         <v>4709</v>
       </c>
       <c r="Q49">
-        <f t="shared" ref="Q47:Q52" si="21">N49+O49-P49</f>
+        <f t="shared" ref="Q49:Q52" si="28">N49+O49-P49</f>
         <v>312624</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>4.1510640849668823E-2</v>
       </c>
       <c r="S49" s="15">
@@ -5910,7 +5910,7 @@
         <v>46.908155134307854</v>
       </c>
       <c r="W49" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.93604523581431898</v>
       </c>
     </row>
@@ -5931,11 +5931,11 @@
         <v>974</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19442</v>
       </c>
       <c r="G50" s="2">
-        <f>F50/F49-1</f>
+        <f t="shared" si="15"/>
         <v>-9.1283010049076907E-2</v>
       </c>
       <c r="H50">
@@ -5945,7 +5945,7 @@
         <v>22075</v>
       </c>
       <c r="J50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>23286</v>
       </c>
       <c r="K50">
@@ -5958,23 +5958,23 @@
         <v>7</v>
       </c>
       <c r="N50">
-        <f>SUM(C37:C50)</f>
+        <f t="shared" si="5"/>
         <v>24677</v>
       </c>
       <c r="O50">
-        <f>SUM(D37:D50)</f>
+        <f t="shared" si="6"/>
         <v>299718</v>
       </c>
       <c r="P50">
-        <f>SUM(E37:E50)</f>
+        <f t="shared" si="25"/>
         <v>5679</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>318716</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1.9486667690260528E-2</v>
       </c>
       <c r="S50" s="15">
@@ -5994,7 +5994,7 @@
         <v>51.783706048372515</v>
       </c>
       <c r="W50" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.80688906292920137</v>
       </c>
     </row>
@@ -6015,11 +6015,11 @@
         <v>533</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18368</v>
       </c>
       <c r="G51" s="2">
-        <f>F51/F50-1</f>
+        <f t="shared" si="15"/>
         <v>-5.5241230326098179E-2</v>
       </c>
       <c r="H51">
@@ -6029,7 +6029,7 @@
         <v>25411</v>
       </c>
       <c r="J51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>27093</v>
       </c>
       <c r="K51">
@@ -6042,23 +6042,23 @@
         <v>7</v>
       </c>
       <c r="N51">
-        <f>SUM(C38:C51)</f>
+        <f t="shared" si="5"/>
         <v>26860</v>
       </c>
       <c r="O51">
-        <f>SUM(D38:D51)</f>
+        <f t="shared" si="6"/>
         <v>299359</v>
       </c>
       <c r="P51">
-        <f>SUM(E38:E51)</f>
+        <f t="shared" si="25"/>
         <v>6172</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>320047</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" ref="R51:R53" si="22">Q51/Q50-1</f>
+        <f t="shared" ref="R51:R54" si="29">Q51/Q50-1</f>
         <v>4.1761317285609056E-3</v>
       </c>
       <c r="S51" s="15">
@@ -6078,7 +6078,7 @@
         <v>56.679617905303623</v>
       </c>
       <c r="W51" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.70006854971389498</v>
       </c>
     </row>
@@ -6099,11 +6099,11 @@
         <v>459</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18036</v>
       </c>
       <c r="G52" s="2">
-        <f>F52/F51-1</f>
+        <f t="shared" si="15"/>
         <v>-1.8074912891986039E-2</v>
       </c>
       <c r="H52">
@@ -6113,7 +6113,7 @@
         <v>19124</v>
       </c>
       <c r="J52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>20297</v>
       </c>
       <c r="K52">
@@ -6126,23 +6126,23 @@
         <v>8</v>
       </c>
       <c r="N52">
-        <f>SUM(C39:C52)</f>
+        <f t="shared" si="5"/>
         <v>29172</v>
       </c>
       <c r="O52">
-        <f>SUM(D39:D52)</f>
+        <f t="shared" si="6"/>
         <v>295560</v>
       </c>
       <c r="P52">
-        <f>SUM(E39:E52)</f>
+        <f t="shared" si="25"/>
         <v>6616</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>318116</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-6.0334888313279267E-3</v>
       </c>
       <c r="S52" s="15">
@@ -6162,7 +6162,7 @@
         <v>61.545990332726767</v>
       </c>
       <c r="W52" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.59379969572597202</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
         <v>17486</v>
       </c>
       <c r="G53" s="2">
-        <f>F53/F52-1</f>
+        <f t="shared" si="15"/>
         <v>-3.049456642271009E-2</v>
       </c>
       <c r="H53">
@@ -6210,15 +6210,15 @@
         <v>11</v>
       </c>
       <c r="N53">
-        <f>SUM(C40:C53)</f>
+        <f t="shared" si="5"/>
         <v>30279</v>
       </c>
       <c r="O53">
-        <f>SUM(D40:D53)</f>
+        <f t="shared" si="6"/>
         <v>290860</v>
       </c>
       <c r="P53">
-        <f>SUM(E40:E53)</f>
+        <f t="shared" si="25"/>
         <v>6436</v>
       </c>
       <c r="Q53">
@@ -6226,7 +6226,7 @@
         <v>314703</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-1.0728790755573425E-2</v>
       </c>
       <c r="S53" s="15">
@@ -6248,6 +6248,90 @@
       <c r="W53" s="17">
         <f>(U53-V53)/V53</f>
         <v>-0.45750576722960318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B54" s="4">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>2736</v>
+      </c>
+      <c r="D54">
+        <v>20634</v>
+      </c>
+      <c r="E54">
+        <v>1120</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="30">D54+C54-E54</f>
+        <v>22250</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="15"/>
+        <v>0.27244652865149255</v>
+      </c>
+      <c r="H54">
+        <v>1875</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54" si="31">H54+I54</f>
+        <v>1875</v>
+      </c>
+      <c r="K54">
+        <v>157</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54" si="32">SUM(C41:C54)</f>
+        <v>32000</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54" si="33">SUM(D41:D54)</f>
+        <v>288885</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ref="P54" si="34">SUM(E41:E54)</f>
+        <v>7136</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ref="Q54" si="35">N54+O54-P54</f>
+        <v>313749</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="29"/>
+        <v>-3.0314296336545477E-3</v>
+      </c>
+      <c r="S54" s="15">
+        <f>SUM(F$2:F54)</f>
+        <v>468244</v>
+      </c>
+      <c r="T54" s="4">
+        <f>SUM(J$2:J54)+T$40</f>
+        <v>203355</v>
+      </c>
+      <c r="U54">
+        <f>SUM(M$2:M54)</f>
+        <v>48</v>
+      </c>
+      <c r="V54" s="16">
+        <f>SUM(Q$2:Q54)*(380.82/24894300)</f>
+        <v>71.159720810788016</v>
+      </c>
+      <c r="W54" s="17">
+        <f t="shared" ref="W54" si="36">(U54-V54)/V54</f>
+        <v>-0.32546109718964689</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF80F9-B378-426C-A477-A214ACA26BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC025C25-AF4F-4620-8EF8-A3FD2E3C1E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -550,175 +550,181 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$B$2:$B$53</c:f>
+              <c:f>拟合!$A$2:$A$55</c:f>
               <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>44621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>44623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>44624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>44625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>44626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>44627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>44628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>44630</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>44631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>44632</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>44633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>44634</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>44635</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>44637</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>44638</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>44639</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>44640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>44641</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>44642</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>44644</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>44645</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>44646</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>44647</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>44648</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>44649</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>44652</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>44653</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>44654</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>44655</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>44656</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>44658</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>44659</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>44660</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>44661</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>44662</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>44663</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>44665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>44666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>44667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>44668</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>44669</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>44670</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$F$2:$F$53</c:f>
+              <c:f>拟合!$F$2:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -874,6 +880,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>17486</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22250</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,14 +909,14 @@
         <c:axId val="643690608"/>
         <c:axId val="643699136"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="643690608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -944,10 +956,9 @@
         <c:crossAx val="643699136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="643699136"/>
         <c:scaling>
@@ -1087,7 +1098,2064 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>近</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>14</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>天阳性</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>拟合!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前14天确诊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>拟合!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>拟合!$N$2:$N$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5093</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6054</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6918</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8679</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13739</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19869</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21861</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26860</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>29172</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30279</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-778D-4409-A725-440FF28414EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>拟合!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前14天无症状</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>拟合!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>拟合!$O$2:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2795</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4524</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6943</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19236</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24695</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29843</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33784</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39469</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46765</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54612</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82622</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>161805</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>183528</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>201495</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220980</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>240828</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>256556</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>270428</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>284222</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>295472</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>299718</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>299359</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>295560</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>290860</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>288885</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>284605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-778D-4409-A725-440FF28414EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>拟合!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前14天无症状转确诊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>拟合!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>拟合!$P$2:$P$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>3927</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>4709</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>5679</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>6172</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>6616</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>6436</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>7136</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>7486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-778D-4409-A725-440FF28414EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>拟合!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前14天阳性合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>拟合!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>拟合!$Q$2:$Q$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3833</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4749</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5652</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7186</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11983</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15314</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19652</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35169</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48748</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56925</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69379</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>123709</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>144644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>166720</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>189260</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>207852</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>228177</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>250129</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>268392</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>284674</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>300164</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>312624</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>318716</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>320047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>318116</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>314703</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>313749</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>309514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-778D-4409-A725-440FF28414EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="481372408"/>
+        <c:axId val="481375032"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="481372408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481375032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="481375032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481372408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1643,18 +3711,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>2</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>16249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>672354</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
@@ -1676,6 +4260,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>505239</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846CCDD9-8391-4C21-A3E8-81E4FB00E1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1981,11 +4601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4687,7 +7307,7 @@
         <v>8935</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" ref="G35:G66" si="15">F35/F34-1</f>
+        <f t="shared" ref="G35:G54" si="15">F35/F34-1</f>
         <v>9.5915613884459683E-2</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -6267,7 +8887,7 @@
         <v>1120</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54" si="30">D54+C54-E54</f>
+        <f t="shared" ref="F54:F55" si="30">D54+C54-E54</f>
         <v>22250</v>
       </c>
       <c r="G54" s="2">
@@ -6278,11 +8898,11 @@
         <v>1875</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>22643</v>
       </c>
       <c r="J54">
-        <f t="shared" ref="J54" si="31">H54+I54</f>
-        <v>1875</v>
+        <f t="shared" ref="J54:J55" si="31">H54+I54</f>
+        <v>24518</v>
       </c>
       <c r="K54">
         <v>157</v>
@@ -6294,11 +8914,11 @@
         <v>12</v>
       </c>
       <c r="N54">
-        <f t="shared" ref="N54" si="32">SUM(C41:C54)</f>
+        <f t="shared" ref="N54:N55" si="32">SUM(C41:C54)</f>
         <v>32000</v>
       </c>
       <c r="O54">
-        <f t="shared" ref="O54" si="33">SUM(D41:D54)</f>
+        <f t="shared" ref="O54:O55" si="33">SUM(D41:D54)</f>
         <v>288885</v>
       </c>
       <c r="P54">
@@ -6306,7 +8926,7 @@
         <v>7136</v>
       </c>
       <c r="Q54">
-        <f t="shared" ref="Q54" si="35">N54+O54-P54</f>
+        <f t="shared" ref="Q54:Q55" si="35">N54+O54-P54</f>
         <v>313749</v>
       </c>
       <c r="R54" s="2">
@@ -6319,7 +8939,7 @@
       </c>
       <c r="T54" s="4">
         <f>SUM(J$2:J54)+T$40</f>
-        <v>203355</v>
+        <v>225998</v>
       </c>
       <c r="U54">
         <f>SUM(M$2:M54)</f>
@@ -6330,8 +8950,92 @@
         <v>71.159720810788016</v>
       </c>
       <c r="W54" s="17">
-        <f t="shared" ref="W54" si="36">(U54-V54)/V54</f>
+        <f t="shared" ref="W54:W55" si="36">(U54-V54)/V54</f>
         <v>-0.32546109718964689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>1401</v>
+      </c>
+      <c r="D55">
+        <v>19657</v>
+      </c>
+      <c r="E55">
+        <v>541</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="30"/>
+        <v>20517</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" ref="G55" si="37">F55/F54-1</f>
+        <v>-7.7887640449438189E-2</v>
+      </c>
+      <c r="H55">
+        <v>2242</v>
+      </c>
+      <c r="I55">
+        <v>16626</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="31"/>
+        <v>18868</v>
+      </c>
+      <c r="K55">
+        <v>160</v>
+      </c>
+      <c r="L55">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="32"/>
+        <v>32395</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="33"/>
+        <v>284605</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ref="P55" si="38">SUM(E42:E55)</f>
+        <v>7486</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="35"/>
+        <v>309514</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" ref="R55" si="39">Q55/Q54-1</f>
+        <v>-1.3498050989803945E-2</v>
+      </c>
+      <c r="S55" s="15">
+        <f>SUM(F$2:F55)</f>
+        <v>488761</v>
+      </c>
+      <c r="T55" s="4">
+        <f>SUM(J$2:J55)+T$40</f>
+        <v>244866</v>
+      </c>
+      <c r="U55">
+        <f>SUM(M$2:M55)</f>
+        <v>87</v>
+      </c>
+      <c r="V55" s="16">
+        <f>SUM(Q$2:Q55)*(380.82/24894300)</f>
+        <v>75.89450433472723</v>
+      </c>
+      <c r="W55" s="17">
+        <f t="shared" si="36"/>
+        <v>0.14632806107136273</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC025C25-AF4F-4620-8EF8-A3FD2E3C1E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF3EA6-7A54-41A5-8A1B-D3CC217D51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>天阳性</a:t>
+              <a:t>天阳性合计</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1186,11 +1186,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>拟合!$N$1</c:f>
+              <c:f>拟合!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>前14天确诊</c:v>
+                  <c:v>前14天阳性合计</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1267,10 +1267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$A$2:$A$55</c:f>
+              <c:f>拟合!$A$2:$A$109</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -1432,177 +1432,342 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44689</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44695</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$N$2:$N$55</c:f>
+              <c:f>拟合!$Q$2:$Q$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>154</c:v>
+                  <c:v>1446</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159</c:v>
+                  <c:v>1801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>176</c:v>
+                  <c:v>2282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>197</c:v>
+                  <c:v>2992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>224</c:v>
+                  <c:v>3833</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225</c:v>
+                  <c:v>4749</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>225</c:v>
+                  <c:v>5652</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>243</c:v>
+                  <c:v>7186</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>276</c:v>
+                  <c:v>9372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>320</c:v>
+                  <c:v>11983</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>329</c:v>
+                  <c:v>15314</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>416</c:v>
+                  <c:v>19652</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>737</c:v>
+                  <c:v>25432</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1084</c:v>
+                  <c:v>30927</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1385</c:v>
+                  <c:v>35169</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1637</c:v>
+                  <c:v>41104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2058</c:v>
+                  <c:v>48748</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2459</c:v>
+                  <c:v>56925</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2696</c:v>
+                  <c:v>69379</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3003</c:v>
+                  <c:v>85435</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3321</c:v>
+                  <c:v>104419</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4116</c:v>
+                  <c:v>123709</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5093</c:v>
+                  <c:v>144644</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6054</c:v>
+                  <c:v>166720</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6918</c:v>
+                  <c:v>189260</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7816</c:v>
+                  <c:v>207852</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8679</c:v>
+                  <c:v>228177</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10897</c:v>
+                  <c:v>250129</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13739</c:v>
+                  <c:v>268392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17069</c:v>
+                  <c:v>284674</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19869</c:v>
+                  <c:v>300164</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21861</c:v>
+                  <c:v>312624</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24677</c:v>
+                  <c:v>318716</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26860</c:v>
+                  <c:v>320047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29172</c:v>
+                  <c:v>318116</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>30279</c:v>
+                  <c:v>314703</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32000</c:v>
+                  <c:v>313749</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32395</c:v>
+                  <c:v>309514</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>302083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,1305 +1776,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-778D-4409-A725-440FF28414EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>拟合!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>前14天无症状</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>拟合!$A$2:$A$55</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44623</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44624</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44626</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44627</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44628</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44629</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44630</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44632</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44633</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44634</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44635</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44636</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44637</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44638</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44639</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44640</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44641</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44642</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44643</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44644</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44645</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44646</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44647</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44648</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44649</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44650</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44653</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44654</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44655</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44656</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44658</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44660</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44661</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44665</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44669</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44670</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44672</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44674</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>拟合!$O$2:$O$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1292</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1642</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2106</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2795</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3609</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4524</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5427</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6943</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9096</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11663</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14985</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19236</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24695</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29843</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33784</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39469</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>46765</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54612</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>66833</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>82622</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>101303</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>120121</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>140499</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>161805</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>183528</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>201495</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>220980</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>240828</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>256556</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>270428</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>284222</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>295472</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>299718</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>299359</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>295560</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>290860</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>288885</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>284605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-778D-4409-A725-440FF28414EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>拟合!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>前14天无症状转确诊</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>拟合!$A$2:$A$55</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44623</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44624</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44626</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44627</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44628</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44629</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44630</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44632</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44633</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44634</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44635</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44636</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44637</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44638</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44639</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44640</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44641</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44642</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44643</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44644</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44645</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44646</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44647</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44648</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44649</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44650</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44653</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44654</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44655</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44656</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44658</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44660</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44661</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44665</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44669</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44670</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44672</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44674</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>拟合!$P$2:$P$55</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>948</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>1139</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>1186</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>1459</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>1482</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>1596</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>1903</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>2823</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>3927</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>4709</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>5679</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>6172</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>6616</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>6436</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>7136</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>7486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-778D-4409-A725-440FF28414EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>拟合!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>前14天阳性合计</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>拟合!$A$2:$A$55</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44623</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44624</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44626</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44627</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44628</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44629</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44630</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44632</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44633</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44634</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44635</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44636</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44637</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44638</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44639</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44640</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44641</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44642</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44643</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44644</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44645</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44646</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44647</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44648</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44649</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44650</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44653</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44654</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44655</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44656</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44658</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44660</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44661</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44665</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44669</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44670</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44672</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44674</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>拟合!$Q$2:$Q$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>852</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1202</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1446</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3833</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4749</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5652</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7186</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9372</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11983</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15314</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19652</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25432</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30927</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35169</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41104</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>48748</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>56925</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69379</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>85435</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>104419</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>123709</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>144644</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>166720</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>189260</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>207852</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>228177</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>250129</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>268392</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>284674</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>300164</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>312624</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>318716</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>320047</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>318116</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>314703</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>313749</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>309514</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-778D-4409-A725-440FF28414EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2987,9 +1853,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3015,10 +1881,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4268,15 +3131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>29134</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>10084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>36979</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4601,11 +3464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U94" sqref="U94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8914,11 +7777,11 @@
         <v>12</v>
       </c>
       <c r="N54">
-        <f t="shared" ref="N54:N55" si="32">SUM(C41:C54)</f>
+        <f t="shared" ref="N54:N56" si="32">SUM(C41:C54)</f>
         <v>32000</v>
       </c>
       <c r="O54">
-        <f t="shared" ref="O54:O55" si="33">SUM(D41:D54)</f>
+        <f t="shared" ref="O54:O56" si="33">SUM(D41:D54)</f>
         <v>288885</v>
       </c>
       <c r="P54">
@@ -8975,7 +7838,7 @@
         <v>20517</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" ref="G55" si="37">F55/F54-1</f>
+        <f t="shared" ref="G55:G56" si="37">F55/F54-1</f>
         <v>-7.7887640449438189E-2</v>
       </c>
       <c r="H55">
@@ -9014,7 +7877,7 @@
         <v>309514</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" ref="R55" si="39">Q55/Q54-1</f>
+        <f t="shared" ref="R55:R56" si="39">Q55/Q54-1</f>
         <v>-1.3498050989803945E-2</v>
       </c>
       <c r="S55" s="15">
@@ -9036,6 +7899,355 @@
       <c r="W55" s="17">
         <f t="shared" si="36"/>
         <v>0.14632806107136273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B56" s="4">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>2472</v>
+      </c>
+      <c r="D56">
+        <v>16983</v>
+      </c>
+      <c r="E56">
+        <v>846</v>
+      </c>
+      <c r="F56">
+        <f>D56+C56-E56</f>
+        <v>18609</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="37"/>
+        <v>-9.2996052054393874E-2</v>
+      </c>
+      <c r="H56">
+        <v>2449</v>
+      </c>
+      <c r="I56">
+        <v>19523</v>
+      </c>
+      <c r="J56">
+        <f>H56+I56</f>
+        <v>21972</v>
+      </c>
+      <c r="K56">
+        <v>196</v>
+      </c>
+      <c r="L56">
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <v>51</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="32"/>
+        <v>33953</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="33"/>
+        <v>276415</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ref="P56" si="40">SUM(E43:E56)</f>
+        <v>8285</v>
+      </c>
+      <c r="Q56">
+        <f>N56+O56-P56</f>
+        <v>302083</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="39"/>
+        <v>-2.4008607042007801E-2</v>
+      </c>
+      <c r="S56" s="15">
+        <f>SUM(F$2:F56)</f>
+        <v>507370</v>
+      </c>
+      <c r="T56" s="4">
+        <f>SUM(J$2:J56)+T$40</f>
+        <v>266838</v>
+      </c>
+      <c r="U56">
+        <f>SUM(M$2:M56)</f>
+        <v>138</v>
+      </c>
+      <c r="V56" s="16">
+        <f>SUM(Q$2:Q56)*(380.82/24894300)</f>
+        <v>80.515612301611213</v>
+      </c>
+      <c r="W56" s="17">
+        <f>(U56-V56)/V56</f>
+        <v>0.71395330737910134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44728</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF3EA6-7A54-41A5-8A1B-D3CC217D51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7FB64-6C19-47F7-8A28-6E9CDDA95216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -1768,6 +1768,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>302083</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>295026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,8 +3470,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V56" sqref="V56"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7838,7 +7841,7 @@
         <v>20517</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" ref="G55:G56" si="37">F55/F54-1</f>
+        <f t="shared" ref="G55:G57" si="37">F55/F54-1</f>
         <v>-7.7887640449438189E-2</v>
       </c>
       <c r="H55">
@@ -7877,7 +7880,7 @@
         <v>309514</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" ref="R55:R56" si="39">Q55/Q54-1</f>
+        <f t="shared" ref="R55:R57" si="39">Q55/Q54-1</f>
         <v>-1.3498050989803945E-2</v>
       </c>
       <c r="S55" s="15">
@@ -7988,6 +7991,85 @@
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44676</v>
+      </c>
+      <c r="B57" s="4">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>1661</v>
+      </c>
+      <c r="D57">
+        <v>15319</v>
+      </c>
+      <c r="E57">
+        <v>968</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="41">D57+C57-E57</f>
+        <v>16012</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="37"/>
+        <v>-0.13955612875490353</v>
+      </c>
+      <c r="H57">
+        <v>1941</v>
+      </c>
+      <c r="I57">
+        <v>12871</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57" si="42">H57+I57</f>
+        <v>14812</v>
+      </c>
+      <c r="K57">
+        <v>259</v>
+      </c>
+      <c r="L57">
+        <v>28</v>
+      </c>
+      <c r="M57">
+        <v>52</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57" si="43">SUM(C44:C57)</f>
+        <v>34620</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57" si="44">SUM(D44:D57)</f>
+        <v>269386</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ref="P57" si="45">SUM(E44:E57)</f>
+        <v>8980</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ref="Q57" si="46">N57+O57-P57</f>
+        <v>295026</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="39"/>
+        <v>-2.3361129226073585E-2</v>
+      </c>
+      <c r="S57" s="15">
+        <f>SUM(F$2:F57)</f>
+        <v>523382</v>
+      </c>
+      <c r="T57" s="4">
+        <f>SUM(J$2:J57)+T$40</f>
+        <v>281650</v>
+      </c>
+      <c r="U57">
+        <f>SUM(M$2:M57)</f>
+        <v>190</v>
+      </c>
+      <c r="V57" s="16">
+        <f>SUM(Q$2:Q57)*(380.82/24894300)</f>
+        <v>85.028765968113177</v>
+      </c>
+      <c r="W57" s="17">
+        <f t="shared" ref="W57" si="47">(U57-V57)/V57</f>
+        <v>1.2345378982831801</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7FB64-6C19-47F7-8A28-6E9CDDA95216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97134B2-91FF-4A46-BEAA-1F60C98DAB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -550,10 +550,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$A$2:$A$55</c:f>
+              <c:f>拟合!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -715,16 +715,25 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$F$2:$F$55</c:f>
+              <c:f>拟合!$F$2:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -886,6 +895,15 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>20517</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18609</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16012</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>295026</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,8 +3491,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8005,7 +8026,7 @@
         <v>968</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57" si="41">D57+C57-E57</f>
+        <f t="shared" ref="F57:F58" si="41">D57+C57-E57</f>
         <v>16012</v>
       </c>
       <c r="G57" s="2">
@@ -8019,7 +8040,7 @@
         <v>12871</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J57" si="42">H57+I57</f>
+        <f t="shared" ref="J57:J58" si="42">H57+I57</f>
         <v>14812</v>
       </c>
       <c r="K57">
@@ -8032,11 +8053,11 @@
         <v>52</v>
       </c>
       <c r="N57">
-        <f t="shared" ref="N57" si="43">SUM(C44:C57)</f>
+        <f t="shared" ref="N57:N58" si="43">SUM(C44:C57)</f>
         <v>34620</v>
       </c>
       <c r="O57">
-        <f t="shared" ref="O57" si="44">SUM(D44:D57)</f>
+        <f t="shared" ref="O57:O58" si="44">SUM(D44:D57)</f>
         <v>269386</v>
       </c>
       <c r="P57">
@@ -8044,7 +8065,7 @@
         <v>8980</v>
       </c>
       <c r="Q57">
-        <f t="shared" ref="Q57" si="46">N57+O57-P57</f>
+        <f t="shared" ref="Q57:Q58" si="46">N57+O57-P57</f>
         <v>295026</v>
       </c>
       <c r="R57" s="2">
@@ -8068,13 +8089,92 @@
         <v>85.028765968113177</v>
       </c>
       <c r="W57" s="17">
-        <f t="shared" ref="W57" si="47">(U57-V57)/V57</f>
+        <f t="shared" ref="W57:W58" si="47">(U57-V57)/V57</f>
         <v>1.2345378982831801</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44677</v>
+      </c>
+      <c r="B58" s="4">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>1606</v>
+      </c>
+      <c r="D58">
+        <v>11956</v>
+      </c>
+      <c r="E58">
+        <v>1253</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="41"/>
+        <v>12309</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" ref="G58" si="48">F58/F57-1</f>
+        <v>-0.23126405196102928</v>
+      </c>
+      <c r="H58">
+        <v>2639</v>
+      </c>
+      <c r="I58">
+        <v>30534</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="42"/>
+        <v>33173</v>
+      </c>
+      <c r="K58">
+        <v>244</v>
+      </c>
+      <c r="L58">
+        <v>27</v>
+      </c>
+      <c r="M58">
+        <v>48</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="43"/>
+        <v>35037</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="44"/>
+        <v>256201</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ref="P58" si="49">SUM(E45:E58)</f>
+        <v>10210</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="46"/>
+        <v>281028</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" ref="R58" si="50">Q58/Q57-1</f>
+        <v>-4.7446665717597813E-2</v>
+      </c>
+      <c r="S58" s="15">
+        <f>SUM(F$2:F58)</f>
+        <v>535691</v>
+      </c>
+      <c r="T58" s="4">
+        <f>SUM(J$2:J58)+T$40</f>
+        <v>314823</v>
+      </c>
+      <c r="U58">
+        <f>SUM(M$2:M58)</f>
+        <v>238</v>
+      </c>
+      <c r="V58" s="16">
+        <f>SUM(Q$2:Q58)*(380.82/24894300)</f>
+        <v>89.327785541268483</v>
+      </c>
+      <c r="W58" s="17">
+        <f t="shared" si="47"/>
+        <v>1.6643445660034473</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97134B2-91FF-4A46-BEAA-1F60C98DAB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D03AA-9CF7-4324-8C8E-0D0BE253C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
   <sheets>
     <sheet name="拟合" sheetId="3" r:id="rId1"/>
@@ -550,10 +550,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$A$2:$A$58</c:f>
+              <c:f>拟合!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -724,16 +724,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$F$2:$F$58</c:f>
+              <c:f>拟合!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -904,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>12309</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,6 +1798,12 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>281028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>263187</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>250392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,8 +3503,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7862,7 +7874,7 @@
         <v>20517</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" ref="G55:G57" si="37">F55/F54-1</f>
+        <f t="shared" ref="G55:G59" si="37">F55/F54-1</f>
         <v>-7.7887640449438189E-2</v>
       </c>
       <c r="H55">
@@ -8026,7 +8038,7 @@
         <v>968</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:F58" si="41">D57+C57-E57</f>
+        <f t="shared" ref="F57:F59" si="41">D57+C57-E57</f>
         <v>16012</v>
       </c>
       <c r="G57" s="2">
@@ -8053,11 +8065,11 @@
         <v>52</v>
       </c>
       <c r="N57">
-        <f t="shared" ref="N57:N58" si="43">SUM(C44:C57)</f>
+        <f t="shared" ref="N57:N59" si="43">SUM(C44:C57)</f>
         <v>34620</v>
       </c>
       <c r="O57">
-        <f t="shared" ref="O57:O58" si="44">SUM(D44:D57)</f>
+        <f t="shared" ref="O57:O59" si="44">SUM(D44:D57)</f>
         <v>269386</v>
       </c>
       <c r="P57">
@@ -8114,7 +8126,7 @@
         <v>12309</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" ref="G58" si="48">F58/F57-1</f>
+        <f t="shared" si="37"/>
         <v>-0.23126405196102928</v>
       </c>
       <c r="H58">
@@ -8145,7 +8157,7 @@
         <v>256201</v>
       </c>
       <c r="P58">
-        <f t="shared" ref="P58" si="49">SUM(E45:E58)</f>
+        <f t="shared" ref="P58" si="48">SUM(E45:E58)</f>
         <v>10210</v>
       </c>
       <c r="Q58">
@@ -8153,7 +8165,7 @@
         <v>281028</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" ref="R58" si="50">Q58/Q57-1</f>
+        <f t="shared" ref="R58:R60" si="49">Q58/Q57-1</f>
         <v>-4.7446665717597813E-2</v>
       </c>
       <c r="S58" s="15">
@@ -8181,10 +8193,168 @@
       <c r="A59" s="1">
         <v>44678</v>
       </c>
+      <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>1292</v>
+      </c>
+      <c r="D59">
+        <v>9330</v>
+      </c>
+      <c r="E59">
+        <v>858</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="41"/>
+        <v>9764</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="37"/>
+        <v>-0.20675928182630599</v>
+      </c>
+      <c r="H59">
+        <v>2310</v>
+      </c>
+      <c r="I59">
+        <v>24877</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59:J60" si="50">H59+I59</f>
+        <v>27187</v>
+      </c>
+      <c r="K59">
+        <v>304</v>
+      </c>
+      <c r="L59">
+        <v>48</v>
+      </c>
+      <c r="M59">
+        <v>47</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="43"/>
+        <v>33756</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="44"/>
+        <v>240385</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ref="P59" si="51">SUM(E46:E59)</f>
+        <v>10954</v>
+      </c>
+      <c r="Q59">
+        <f>N59+O59-P59</f>
+        <v>263187</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="49"/>
+        <v>-6.3484777317562635E-2</v>
+      </c>
+      <c r="S59" s="15">
+        <f>SUM(F$2:F59)</f>
+        <v>545455</v>
+      </c>
+      <c r="T59" s="4">
+        <f>SUM(J$2:J59)+T$40</f>
+        <v>342010</v>
+      </c>
+      <c r="U59">
+        <f>SUM(M$2:M59)</f>
+        <v>285</v>
+      </c>
+      <c r="V59" s="16">
+        <f>SUM(Q$2:Q59)*(380.82/24894300)</f>
+        <v>93.353882814138174</v>
+      </c>
+      <c r="W59" s="17">
+        <f>(U59-V59)/V59</f>
+        <v>2.0528992625557678</v>
+      </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44679</v>
+      </c>
+      <c r="B60" s="4">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>5487</v>
+      </c>
+      <c r="D60">
+        <v>9545</v>
+      </c>
+      <c r="E60">
+        <v>5062</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60" si="52">D60+C60-E60</f>
+        <v>9970</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" ref="G60" si="53">F60/F59-1</f>
+        <v>2.1097910692339239E-2</v>
+      </c>
+      <c r="H60">
+        <v>2480</v>
+      </c>
+      <c r="I60">
+        <v>14994</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="50"/>
+        <v>17474</v>
+      </c>
+      <c r="K60">
+        <v>318</v>
+      </c>
+      <c r="L60">
+        <v>52</v>
+      </c>
+      <c r="M60">
+        <v>52</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60" si="54">SUM(C47:C60)</f>
+        <v>36043</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60" si="55">SUM(D47:D60)</f>
+        <v>230058</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ref="P60" si="56">SUM(E47:E60)</f>
+        <v>15709</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ref="Q60" si="57">N60+O60-P60</f>
+        <v>250392</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="49"/>
+        <v>-4.8615623112083783E-2</v>
+      </c>
+      <c r="S60" s="15">
+        <f>SUM(F$2:F60)</f>
+        <v>555425</v>
+      </c>
+      <c r="T60" s="4">
+        <f>SUM(J$2:J60)+T$40</f>
+        <v>359484</v>
+      </c>
+      <c r="U60">
+        <f>SUM(M$2:M60)</f>
+        <v>337</v>
+      </c>
+      <c r="V60" s="16">
+        <f>SUM(Q$2:Q60)*(380.82/24894300)</f>
+        <v>97.184248859377448</v>
+      </c>
+      <c r="W60" s="17">
+        <f t="shared" ref="W60" si="58">(U60-V60)/V60</f>
+        <v>2.4676401161224017</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D03AA-9CF7-4324-8C8E-0D0BE253C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BFD101-2D0B-4F8E-9A8E-2B23C24A3D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -550,10 +550,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$A$2:$A$59</c:f>
+              <c:f>拟合!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -727,16 +727,28 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$F$2:$F$59</c:f>
+              <c:f>拟合!$F$2:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -910,6 +922,12 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>9764</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,6 +1822,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>250392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,15 +3152,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>16249</xdr:rowOff>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81804</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>103654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3503,8 +3524,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8165,7 +8186,7 @@
         <v>281028</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" ref="R58:R60" si="49">Q58/Q57-1</f>
+        <f t="shared" ref="R58:R61" si="49">Q58/Q57-1</f>
         <v>-4.7446665717597813E-2</v>
       </c>
       <c r="S58" s="15">
@@ -8220,7 +8241,7 @@
         <v>24877</v>
       </c>
       <c r="J59">
-        <f t="shared" ref="J59:J60" si="50">H59+I59</f>
+        <f t="shared" ref="J59:J61" si="50">H59+I59</f>
         <v>27187</v>
       </c>
       <c r="K59">
@@ -8290,11 +8311,11 @@
         <v>5062</v>
       </c>
       <c r="F60">
-        <f t="shared" ref="F60" si="52">D60+C60-E60</f>
+        <f t="shared" ref="F60:F61" si="52">D60+C60-E60</f>
         <v>9970</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" ref="G60" si="53">F60/F59-1</f>
+        <f t="shared" ref="G60:G61" si="53">F60/F59-1</f>
         <v>2.1097910692339239E-2</v>
       </c>
       <c r="H60">
@@ -8321,15 +8342,15 @@
         <v>36043</v>
       </c>
       <c r="O60">
-        <f t="shared" ref="O60" si="55">SUM(D47:D60)</f>
+        <f t="shared" ref="O60:O61" si="55">SUM(D47:D60)</f>
         <v>230058</v>
       </c>
       <c r="P60">
-        <f t="shared" ref="P60" si="56">SUM(E47:E60)</f>
+        <f t="shared" ref="P60:P61" si="56">SUM(E47:E60)</f>
         <v>15709</v>
       </c>
       <c r="Q60">
-        <f t="shared" ref="Q60" si="57">N60+O60-P60</f>
+        <f t="shared" ref="Q60:Q61" si="57">N60+O60-P60</f>
         <v>250392</v>
       </c>
       <c r="R60" s="2">
@@ -8353,13 +8374,92 @@
         <v>97.184248859377448</v>
       </c>
       <c r="W60" s="17">
-        <f t="shared" ref="W60" si="58">(U60-V60)/V60</f>
+        <f t="shared" ref="W60:W61" si="58">(U60-V60)/V60</f>
         <v>2.4676401161224017</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44680</v>
+      </c>
+      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>1249</v>
+      </c>
+      <c r="D61">
+        <v>8932</v>
+      </c>
+      <c r="E61">
+        <v>985</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="52"/>
+        <v>9196</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="53"/>
+        <v>-7.7632898696088248E-2</v>
+      </c>
+      <c r="H61">
+        <v>2807</v>
+      </c>
+      <c r="I61">
+        <v>13605</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="50"/>
+        <v>16412</v>
+      </c>
+      <c r="K61">
+        <v>356</v>
+      </c>
+      <c r="L61">
+        <v>57</v>
+      </c>
+      <c r="M61">
+        <v>47</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61" si="59">SUM(C48:C61)</f>
+        <v>33702</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="55"/>
+        <v>219067</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="56"/>
+        <v>15772</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="57"/>
+        <v>236997</v>
+      </c>
+      <c r="R61" s="2">
+        <f t="shared" si="49"/>
+        <v>-5.349611808683985E-2</v>
+      </c>
+      <c r="S61" s="15">
+        <f>SUM(F$2:F61)</f>
+        <v>564621</v>
+      </c>
+      <c r="T61" s="4">
+        <f>SUM(J$2:J61)+T$40</f>
+        <v>375896</v>
+      </c>
+      <c r="U61">
+        <f>SUM(M$2:M61)</f>
+        <v>384</v>
+      </c>
+      <c r="V61" s="16">
+        <f>SUM(Q$2:Q61)*(380.82/24894300)</f>
+        <v>100.80970519034477</v>
+      </c>
+      <c r="W61" s="17">
+        <f t="shared" si="58"/>
+        <v>2.8091570575962592</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HelloWorld\covid-shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BFD101-2D0B-4F8E-9A8E-2B23C24A3D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3BBEB-AC6F-4F4E-B770-8A9AAA24CF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A12BC7F-B800-4DBA-AB55-EF7624A060F3}"/>
   </bookViews>
@@ -550,10 +550,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$A$2:$A$63</c:f>
+              <c:f>拟合!$A$2:$A$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -739,16 +739,184 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44689</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44695</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$F$2:$F$63</c:f>
+              <c:f>拟合!$F$2:$F$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -928,6 +1096,180 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>9196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6804</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4831</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4466</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4088</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,10 +1651,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>拟合!$A$2:$A$109</c:f>
+              <c:f>拟合!$A$2:$A$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -1636,16 +1978,46 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>拟合!$Q$2:$Q$109</c:f>
+              <c:f>拟合!$Q$2:$Q$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1825,6 +2197,180 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>236997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>220543</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>205952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>192024</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>178487</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>164917</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>151519</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>133308</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>116631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>101739</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>88585</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77565</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69144</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>61103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>53448</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47517</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36872</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32840</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29045</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25744</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22524</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19277</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16088</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13671</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12737</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11701</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8614</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7460</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6629</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5881</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5096</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4435</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,16 +3697,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95252</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>63874</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415638</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>98511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>81804</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>103654</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506100</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>138291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3187,16 +3733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>10084</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368010</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>44721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>36979</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>71616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3521,11 +4067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10553464-E8C6-4D82-A638-DDD6CC6B08F7}">
-  <dimension ref="A1:W109"/>
+  <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U175" sqref="U175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8466,240 +9012,2842 @@
       <c r="A62" s="1">
         <v>44681</v>
       </c>
+      <c r="B62" s="4">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>788</v>
+      </c>
+      <c r="D62">
+        <v>7084</v>
+      </c>
+      <c r="E62">
+        <v>683</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:F71" si="60">D62+C62-E62</f>
+        <v>7189</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" ref="G62:G71" si="61">F62/F61-1</f>
+        <v>-0.21824706394084381</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62:N119" si="62">SUM(C49:C62)</f>
+        <v>31252</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ref="O62:O119" si="63">SUM(D49:D62)</f>
+        <v>204569</v>
+      </c>
+      <c r="P62">
+        <f t="shared" ref="P62:P119" si="64">SUM(E49:E62)</f>
+        <v>15278</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ref="Q62:Q119" si="65">N62+O62-P62</f>
+        <v>220543</v>
+      </c>
+      <c r="R62" s="2">
+        <f t="shared" ref="R62:R119" si="66">Q62/Q61-1</f>
+        <v>-6.9427039160833259E-2</v>
+      </c>
+      <c r="S62" s="15">
+        <f>SUM(F$2:F62)</f>
+        <v>571810</v>
+      </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44682</v>
       </c>
+      <c r="B63" s="4">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>727</v>
+      </c>
+      <c r="D63">
+        <v>6606</v>
+      </c>
+      <c r="E63">
+        <v>529</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="60"/>
+        <v>6804</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="61"/>
+        <v>-5.355404089581306E-2</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="62"/>
+        <v>29562</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="63"/>
+        <v>191344</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="64"/>
+        <v>14954</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="65"/>
+        <v>205952</v>
+      </c>
+      <c r="R63" s="2">
+        <f t="shared" si="66"/>
+        <v>-6.6159433761216579E-2</v>
+      </c>
+      <c r="S63" s="15">
+        <f>SUM(F$2:F63)</f>
+        <v>578614</v>
+      </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44683</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>274</v>
+      </c>
+      <c r="D64">
+        <v>5395</v>
+      </c>
+      <c r="E64">
+        <v>155</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="60"/>
+        <v>5514</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="61"/>
+        <v>-0.18959435626102294</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="62"/>
+        <v>26752</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="63"/>
+        <v>179407</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="64"/>
+        <v>14135</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="65"/>
+        <v>192024</v>
+      </c>
+      <c r="R64" s="2">
+        <f t="shared" si="66"/>
+        <v>-6.762740832815417E-2</v>
+      </c>
+      <c r="S64" s="15">
+        <f>SUM(F$2:F64)</f>
+        <v>584128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44684</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>260</v>
+      </c>
+      <c r="D65">
+        <v>4722</v>
+      </c>
+      <c r="E65">
+        <v>151</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="60"/>
+        <v>4831</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="61"/>
+        <v>-0.12386652158142908</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="62"/>
+        <v>24518</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="63"/>
+        <v>167722</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="64"/>
+        <v>13753</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="65"/>
+        <v>178487</v>
+      </c>
+      <c r="R65" s="2">
+        <f t="shared" si="66"/>
+        <v>-7.0496396283797891E-2</v>
+      </c>
+      <c r="S65" s="15">
+        <f>SUM(F$2:F65)</f>
+        <v>588959</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44685</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>261</v>
+      </c>
+      <c r="D66">
+        <v>4390</v>
+      </c>
+      <c r="E66">
+        <v>185</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="60"/>
+        <v>4466</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="61"/>
+        <v>-7.5553715586834991E-2</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="62"/>
+        <v>22145</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="63"/>
+        <v>156251</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="64"/>
+        <v>13479</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="65"/>
+        <v>164917</v>
+      </c>
+      <c r="R66" s="2">
+        <f t="shared" si="66"/>
+        <v>-7.6027946012874881E-2</v>
+      </c>
+      <c r="S66" s="15">
+        <f>SUM(F$2:F66)</f>
+        <v>593425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44686</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>245</v>
+      </c>
+      <c r="D67">
+        <v>4024</v>
+      </c>
+      <c r="E67">
+        <v>181</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="60"/>
+        <v>4088</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="61"/>
+        <v>-8.4639498432601878E-2</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="62"/>
+        <v>20459</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="63"/>
+        <v>144577</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="64"/>
+        <v>13517</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="65"/>
+        <v>151519</v>
+      </c>
+      <c r="R67" s="2">
+        <f t="shared" si="66"/>
+        <v>-8.1240866617753205E-2</v>
+      </c>
+      <c r="S67" s="15">
+        <f>SUM(F$2:F67)</f>
+        <v>597513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44687</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>253</v>
+      </c>
+      <c r="D68">
+        <v>3961</v>
+      </c>
+      <c r="E68">
+        <v>175</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="60"/>
+        <v>4039</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="61"/>
+        <v>-1.1986301369863006E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="62"/>
+        <v>17976</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="63"/>
+        <v>127904</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="64"/>
+        <v>12572</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="65"/>
+        <v>133308</v>
+      </c>
+      <c r="R68" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12018954718550146</v>
+      </c>
+      <c r="S68" s="15">
+        <f>SUM(F$2:F68)</f>
+        <v>601552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44688</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>215</v>
+      </c>
+      <c r="D69">
+        <v>3760</v>
+      </c>
+      <c r="E69">
+        <v>135</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="60"/>
+        <v>3840</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="61"/>
+        <v>-4.9269621193364643E-2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="62"/>
+        <v>16790</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="63"/>
+        <v>112007</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="64"/>
+        <v>12166</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="65"/>
+        <v>116631</v>
+      </c>
+      <c r="R69" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12510126924115583</v>
+      </c>
+      <c r="S69" s="15">
+        <f>SUM(F$2:F69)</f>
+        <v>605392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44689</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>322</v>
+      </c>
+      <c r="D70">
+        <v>3625</v>
+      </c>
+      <c r="E70">
+        <v>230</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="60"/>
+        <v>3717</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="61"/>
+        <v>-3.2031249999999956E-2</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="62"/>
+        <v>14640</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="63"/>
+        <v>98649</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="64"/>
+        <v>11550</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="65"/>
+        <v>101739</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12768474933765461</v>
+      </c>
+      <c r="S70" s="15">
+        <f>SUM(F$2:F70)</f>
+        <v>609109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44690</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>234</v>
+      </c>
+      <c r="D71">
+        <v>2780</v>
+      </c>
+      <c r="E71">
+        <v>156</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="60"/>
+        <v>2858</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="61"/>
+        <v>-0.23110034974441751</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="62"/>
+        <v>13213</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="63"/>
+        <v>86110</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="64"/>
+        <v>10738</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="65"/>
+        <v>88585</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12929161874993855</v>
+      </c>
+      <c r="S71" s="15">
+        <f>SUM(F$2:F71)</f>
+        <v>611967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44691</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>228</v>
+      </c>
+      <c r="D72">
+        <v>1259</v>
+      </c>
+      <c r="E72">
+        <v>198</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F119" si="67">D72+C72-E72</f>
+        <v>1289</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" ref="G72:G119" si="68">F72/F71-1</f>
+        <v>-0.54898530440867743</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="62"/>
+        <v>11835</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="63"/>
+        <v>75413</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="64"/>
+        <v>9683</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="65"/>
+        <v>77565</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12440029350341475</v>
+      </c>
+      <c r="S72" s="15">
+        <f>SUM(F$2:F72)</f>
+        <v>613256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44692</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>144</v>
+      </c>
+      <c r="D73">
+        <v>1305</v>
+      </c>
+      <c r="E73">
+        <v>106</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="67"/>
+        <v>1343</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="68"/>
+        <v>4.189294026377044E-2</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="62"/>
+        <v>10687</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="63"/>
+        <v>67388</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="64"/>
+        <v>8931</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="65"/>
+        <v>69144</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.10856700831560628</v>
+      </c>
+      <c r="S73" s="15">
+        <f>SUM(F$2:F73)</f>
+        <v>614599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44693</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>227</v>
+      </c>
+      <c r="D74">
+        <v>1869</v>
+      </c>
+      <c r="E74">
+        <v>167</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="67"/>
+        <v>1929</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="68"/>
+        <v>0.43633655994043186</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="62"/>
+        <v>5427</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="63"/>
+        <v>59712</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="64"/>
+        <v>4036</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="65"/>
+        <v>61103</v>
+      </c>
+      <c r="R74" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11629353233830841</v>
+      </c>
+      <c r="S74" s="15">
+        <f>SUM(F$2:F74)</f>
+        <v>616528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44694</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>194</v>
+      </c>
+      <c r="D75">
+        <v>1487</v>
+      </c>
+      <c r="E75">
+        <v>140</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="67"/>
+        <v>1541</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.20114048729911871</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="62"/>
+        <v>4372</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="63"/>
+        <v>52267</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="64"/>
+        <v>3191</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="65"/>
+        <v>53448</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12528026447146623</v>
+      </c>
+      <c r="S75" s="15">
+        <f>SUM(F$2:F75)</f>
+        <v>618069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44695</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>166</v>
+      </c>
+      <c r="D76">
+        <v>1203</v>
+      </c>
+      <c r="E76">
+        <v>111</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="67"/>
+        <v>1258</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.18364698247890976</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="62"/>
+        <v>3750</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="63"/>
+        <v>46386</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="64"/>
+        <v>2619</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="65"/>
+        <v>47517</v>
+      </c>
+      <c r="R76" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11096766951055226</v>
+      </c>
+      <c r="S76" s="15">
+        <f>SUM(F$2:F76)</f>
+        <v>619327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44696</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>69</v>
+      </c>
+      <c r="D77">
+        <v>869</v>
+      </c>
+      <c r="E77">
+        <v>42</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="67"/>
+        <v>896</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.28775834658187605</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="62"/>
+        <v>3092</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="63"/>
+        <v>40649</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="64"/>
+        <v>2132</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="65"/>
+        <v>41609</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12433444872361465</v>
+      </c>
+      <c r="S77" s="15">
+        <f>SUM(F$2:F77)</f>
+        <v>620223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44697</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>746</v>
+      </c>
+      <c r="E78">
+        <v>46</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="67"/>
+        <v>777</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.1328125</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="62"/>
+        <v>2895</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="63"/>
+        <v>36000</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="64"/>
+        <v>2023</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="65"/>
+        <v>36872</v>
+      </c>
+      <c r="R78" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11384556225816533</v>
+      </c>
+      <c r="S78" s="15">
+        <f>SUM(F$2:F78)</f>
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44698</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>96</v>
+      </c>
+      <c r="D79">
+        <v>759</v>
+      </c>
+      <c r="E79">
+        <v>56</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="67"/>
+        <v>799</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="68"/>
+        <v>2.8314028314028405E-2</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="62"/>
+        <v>2731</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="63"/>
+        <v>32037</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="64"/>
+        <v>1928</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="65"/>
+        <v>32840</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.10935126925580385</v>
+      </c>
+      <c r="S79" s="15">
+        <f>SUM(F$2:F79)</f>
+        <v>621799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44699</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="4">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>82</v>
+      </c>
+      <c r="D80">
+        <v>637</v>
+      </c>
+      <c r="E80">
+        <v>48</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="67"/>
+        <v>671</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.16020025031289109</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="62"/>
+        <v>2552</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="63"/>
+        <v>28284</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="64"/>
+        <v>1791</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="65"/>
+        <v>29045</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11556029232643117</v>
+      </c>
+      <c r="S80" s="15">
+        <f>SUM(F$2:F80)</f>
+        <v>622470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44700</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="4">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>88</v>
+      </c>
+      <c r="D81">
+        <v>770</v>
+      </c>
+      <c r="E81">
+        <v>71</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="67"/>
+        <v>787</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="68"/>
+        <v>0.17287630402384502</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="62"/>
+        <v>2395</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="63"/>
+        <v>25030</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="64"/>
+        <v>1681</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="65"/>
+        <v>25744</v>
+      </c>
+      <c r="R81" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11365123084868312</v>
+      </c>
+      <c r="S81" s="15">
+        <f>SUM(F$2:F81)</f>
+        <v>623257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44701</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>84</v>
+      </c>
+      <c r="D82">
+        <v>784</v>
+      </c>
+      <c r="E82">
+        <v>49</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="67"/>
+        <v>819</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="68"/>
+        <v>4.0660736975857592E-2</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="62"/>
+        <v>2226</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="63"/>
+        <v>21853</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="64"/>
+        <v>1555</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="65"/>
+        <v>22524</v>
+      </c>
+      <c r="R82" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.12507768800497199</v>
+      </c>
+      <c r="S82" s="15">
+        <f>SUM(F$2:F82)</f>
+        <v>624076</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44702</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>52</v>
+      </c>
+      <c r="D83">
+        <v>570</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="67"/>
+        <v>593</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.27594627594627597</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="62"/>
+        <v>2063</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="63"/>
+        <v>18663</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="64"/>
+        <v>1449</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="65"/>
+        <v>19277</v>
+      </c>
+      <c r="R83" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.14415734327828089</v>
+      </c>
+      <c r="S83" s="15">
+        <f>SUM(F$2:F83)</f>
+        <v>624669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44703</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="4">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>55</v>
+      </c>
+      <c r="D84">
+        <v>503</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="67"/>
+        <v>528</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.10961214165261379</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="62"/>
+        <v>1796</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="63"/>
+        <v>15541</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="64"/>
+        <v>1249</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="65"/>
+        <v>16088</v>
+      </c>
+      <c r="R84" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.16543030554546867</v>
+      </c>
+      <c r="S84" s="15">
+        <f>SUM(F$2:F84)</f>
+        <v>625197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44704</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="4">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>58</v>
+      </c>
+      <c r="D85">
+        <v>422</v>
+      </c>
+      <c r="E85">
+        <v>39</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="67"/>
+        <v>441</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.16477272727272729</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="62"/>
+        <v>1620</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="63"/>
+        <v>13183</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="64"/>
+        <v>1132</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="65"/>
+        <v>13671</v>
+      </c>
+      <c r="R85" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.15023620089507705</v>
+      </c>
+      <c r="S85" s="15">
+        <f>SUM(F$2:F85)</f>
+        <v>625638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44705</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>343</v>
+      </c>
+      <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="67"/>
+        <v>355</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.19501133786848068</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="62"/>
+        <v>1436</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="63"/>
+        <v>12267</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="64"/>
+        <v>966</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="65"/>
+        <v>12737</v>
+      </c>
+      <c r="R86" s="2">
+        <f t="shared" si="66"/>
+        <v>-6.831980103869506E-2</v>
+      </c>
+      <c r="S86" s="15">
+        <f>SUM(F$2:F86)</f>
+        <v>625993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44706</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>48</v>
+      </c>
+      <c r="D87">
+        <v>290</v>
+      </c>
+      <c r="E87">
+        <v>31</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="67"/>
+        <v>307</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.13521126760563384</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="62"/>
+        <v>1340</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="63"/>
+        <v>11252</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="64"/>
+        <v>891</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="65"/>
+        <v>11701</v>
+      </c>
+      <c r="R87" s="2">
+        <f t="shared" si="66"/>
+        <v>-8.1337834654942265E-2</v>
+      </c>
+      <c r="S87" s="15">
+        <f>SUM(F$2:F87)</f>
+        <v>626300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44707</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>45</v>
+      </c>
+      <c r="D88">
+        <v>219</v>
+      </c>
+      <c r="E88">
+        <v>33</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="67"/>
+        <v>231</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.24755700325732899</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="62"/>
+        <v>1158</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="63"/>
+        <v>9602</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="64"/>
+        <v>757</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="65"/>
+        <v>10003</v>
+      </c>
+      <c r="R88" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.1451158020681993</v>
+      </c>
+      <c r="S88" s="15">
+        <f>SUM(F$2:F88)</f>
+        <v>626531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44708</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="4">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>39</v>
+      </c>
+      <c r="D89">
+        <v>131</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="67"/>
+        <v>152</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.34199134199134196</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="62"/>
+        <v>1003</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="63"/>
+        <v>8246</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="64"/>
+        <v>635</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="65"/>
+        <v>8614</v>
+      </c>
+      <c r="R89" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.13885834249725082</v>
+      </c>
+      <c r="S89" s="15">
+        <f>SUM(F$2:F89)</f>
+        <v>626683</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44709</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>93</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="67"/>
+        <v>104</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.31578947368421051</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="62"/>
+        <v>866</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="63"/>
+        <v>7136</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="64"/>
+        <v>542</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="65"/>
+        <v>7460</v>
+      </c>
+      <c r="R90" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.13396795913628978</v>
+      </c>
+      <c r="S90" s="15">
+        <f>SUM(F$2:F90)</f>
+        <v>626787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44710</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="4">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>61</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="67"/>
+        <v>65</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.375</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="62"/>
+        <v>803</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="63"/>
+        <v>6328</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="64"/>
+        <v>502</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="65"/>
+        <v>6629</v>
+      </c>
+      <c r="R91" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11139410187667564</v>
+      </c>
+      <c r="S91" s="15">
+        <f>SUM(F$2:F91)</f>
+        <v>626852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44711</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="4">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>22</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="67"/>
+        <v>29</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.55384615384615388</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="62"/>
+        <v>735</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="63"/>
+        <v>5604</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="64"/>
+        <v>458</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="65"/>
+        <v>5881</v>
+      </c>
+      <c r="R92" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11283753205611702</v>
+      </c>
+      <c r="S92" s="15">
+        <f>SUM(F$2:F92)</f>
+        <v>626881</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44712</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="4">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="67"/>
+        <v>14</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.51724137931034475</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="62"/>
+        <v>644</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="63"/>
+        <v>4855</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="64"/>
+        <v>403</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="65"/>
+        <v>5096</v>
+      </c>
+      <c r="R93" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.13348070056112904</v>
+      </c>
+      <c r="S93" s="15">
+        <f>SUM(F$2:F93)</f>
+        <v>626895</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44713</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="4">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="67"/>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="62"/>
+        <v>567</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="63"/>
+        <v>4226</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="64"/>
+        <v>358</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="65"/>
+        <v>4435</v>
+      </c>
+      <c r="R94" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.1297095761381476</v>
+      </c>
+      <c r="S94" s="15">
+        <f>SUM(F$2:F94)</f>
+        <v>626905</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44714</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="4">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="67"/>
+        <v>14</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="68"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="62"/>
+        <v>487</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="63"/>
+        <v>3464</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="64"/>
+        <v>289</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="65"/>
+        <v>3662</v>
+      </c>
+      <c r="R95" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.17429537767756487</v>
+      </c>
+      <c r="S95" s="15">
+        <f>SUM(F$2:F95)</f>
+        <v>626919</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44715</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="4">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="67"/>
+        <v>12</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="62"/>
+        <v>408</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="63"/>
+        <v>2689</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="64"/>
+        <v>242</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="65"/>
+        <v>2855</v>
+      </c>
+      <c r="R96" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.22037138175860183</v>
+      </c>
+      <c r="S96" s="15">
+        <f>SUM(F$2:F96)</f>
+        <v>626931</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44716</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="4">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="67"/>
+        <v>21</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="68"/>
+        <v>0.75</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="62"/>
+        <v>362</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="63"/>
+        <v>2135</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="64"/>
+        <v>214</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="65"/>
+        <v>2283</v>
+      </c>
+      <c r="R97" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.20035026269702272</v>
+      </c>
+      <c r="S97" s="15">
+        <f>SUM(F$2:F97)</f>
+        <v>626952</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44717</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="4">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="67"/>
+        <v>8</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.61904761904761907</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="62"/>
+        <v>311</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="63"/>
+        <v>1636</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="64"/>
+        <v>184</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="65"/>
+        <v>1763</v>
+      </c>
+      <c r="R98" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.22777047744196233</v>
+      </c>
+      <c r="S98" s="15">
+        <f>SUM(F$2:F98)</f>
+        <v>626960</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44718</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="4">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="67"/>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="68"/>
+        <v>0.25</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="62"/>
+        <v>256</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="63"/>
+        <v>1221</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="64"/>
+        <v>145</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="65"/>
+        <v>1332</v>
+      </c>
+      <c r="R99" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.24446965399886555</v>
+      </c>
+      <c r="S99" s="15">
+        <f>SUM(F$2:F99)</f>
+        <v>626970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44719</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="4">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="67"/>
+        <v>15</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="62"/>
+        <v>216</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="63"/>
+        <v>889</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="64"/>
+        <v>113</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="65"/>
+        <v>992</v>
+      </c>
+      <c r="R100" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.25525525525525528</v>
+      </c>
+      <c r="S100" s="15">
+        <f>SUM(F$2:F100)</f>
+        <v>626985</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44720</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.4</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="62"/>
+        <v>172</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="63"/>
+        <v>604</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="64"/>
+        <v>82</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="65"/>
+        <v>694</v>
+      </c>
+      <c r="R101" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.30040322580645162</v>
+      </c>
+      <c r="S101" s="15">
+        <f>SUM(F$2:F101)</f>
+        <v>626994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44721</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="4">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="67"/>
+        <v>11</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="68"/>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="62"/>
+        <v>133</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="63"/>
+        <v>390</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="64"/>
+        <v>49</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="65"/>
+        <v>474</v>
+      </c>
+      <c r="R102" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.31700288184438041</v>
+      </c>
+      <c r="S102" s="15">
+        <f>SUM(F$2:F102)</f>
+        <v>627005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44722</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="4">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="67"/>
+        <v>16</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="68"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="62"/>
+        <v>101</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="63"/>
+        <v>268</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="64"/>
+        <v>31</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="65"/>
+        <v>338</v>
+      </c>
+      <c r="R103" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.28691983122362874</v>
+      </c>
+      <c r="S103" s="15">
+        <f>SUM(F$2:F103)</f>
+        <v>627021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44723</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="4">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="67"/>
+        <v>29</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="68"/>
+        <v>0.8125</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="62"/>
+        <v>82</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="63"/>
+        <v>194</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="64"/>
+        <v>13</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="65"/>
+        <v>263</v>
+      </c>
+      <c r="R104" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.22189349112426038</v>
+      </c>
+      <c r="S104" s="15">
+        <f>SUM(F$2:F104)</f>
+        <v>627050</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44724</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="4">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>26</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="67"/>
+        <v>36</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="68"/>
+        <v>0.24137931034482762</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="62"/>
+        <v>87</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="63"/>
+        <v>159</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="64"/>
+        <v>12</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="65"/>
+        <v>234</v>
+      </c>
+      <c r="R105" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.11026615969581754</v>
+      </c>
+      <c r="S105" s="15">
+        <f>SUM(F$2:F105)</f>
+        <v>627086</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44725</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="4">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="67"/>
+        <v>17</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.52777777777777779</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="62"/>
+        <v>81</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="63"/>
+        <v>151</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="65"/>
+        <v>222</v>
+      </c>
+      <c r="R106" s="2">
+        <f t="shared" si="66"/>
+        <v>-5.1282051282051322E-2</v>
+      </c>
+      <c r="S106" s="15">
+        <f>SUM(F$2:F106)</f>
+        <v>627103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44726</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="4">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="67"/>
+        <v>14</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.17647058823529416</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="62"/>
+        <v>89</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="63"/>
+        <v>143</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="65"/>
+        <v>222</v>
+      </c>
+      <c r="R107" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="15">
+        <f>SUM(F$2:F107)</f>
+        <v>627117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44727</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="4">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="67"/>
+        <v>16</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="68"/>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="62"/>
+        <v>93</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="63"/>
+        <v>142</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="65"/>
+        <v>228</v>
+      </c>
+      <c r="R108" s="2">
+        <f t="shared" si="66"/>
+        <v>2.7027027027026973E-2</v>
+      </c>
+      <c r="S108" s="15">
+        <f>SUM(F$2:F108)</f>
+        <v>627133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44728</v>
+      </c>
+      <c r="B109" s="4">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.75</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="62"/>
+        <v>87</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="63"/>
+        <v>136</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="65"/>
+        <v>218</v>
+      </c>
+      <c r="R109" s="2">
+        <f t="shared" si="66"/>
+        <v>-4.3859649122807043E-2</v>
+      </c>
+      <c r="S109" s="15">
+        <f>SUM(F$2:F109)</f>
+        <v>627137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B110" s="4">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="67"/>
+        <v>7</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="68"/>
+        <v>0.75</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="62"/>
+        <v>83</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="63"/>
+        <v>133</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="65"/>
+        <v>213</v>
+      </c>
+      <c r="R110" s="2">
+        <f t="shared" si="66"/>
+        <v>-2.2935779816513735E-2</v>
+      </c>
+      <c r="S110" s="15">
+        <f>SUM(F$2:F110)</f>
+        <v>627144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B111" s="4">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="68"/>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="62"/>
+        <v>80</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="63"/>
+        <v>123</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="65"/>
+        <v>201</v>
+      </c>
+      <c r="R111" s="2">
+        <f t="shared" si="66"/>
+        <v>-5.633802816901412E-2</v>
+      </c>
+      <c r="S111" s="15">
+        <f>SUM(F$2:F111)</f>
+        <v>627153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44731</v>
+      </c>
+      <c r="B112" s="4">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="67"/>
+        <v>13</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="68"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="62"/>
+        <v>86</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="63"/>
+        <v>122</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="65"/>
+        <v>206</v>
+      </c>
+      <c r="R112" s="2">
+        <f t="shared" si="66"/>
+        <v>2.4875621890547261E-2</v>
+      </c>
+      <c r="S112" s="15">
+        <f>SUM(F$2:F112)</f>
+        <v>627166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B113" s="4">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="62"/>
+        <v>89</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="63"/>
+        <v>118</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="65"/>
+        <v>205</v>
+      </c>
+      <c r="R113" s="2">
+        <f t="shared" si="66"/>
+        <v>-4.8543689320388328E-3</v>
+      </c>
+      <c r="S113" s="15">
+        <f>SUM(F$2:F113)</f>
+        <v>627175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B114" s="4">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="67"/>
+        <v>8</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.11111111111111116</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="62"/>
+        <v>89</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="63"/>
+        <v>111</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="65"/>
+        <v>198</v>
+      </c>
+      <c r="R114" s="2">
+        <f t="shared" si="66"/>
+        <v>-3.4146341463414664E-2</v>
+      </c>
+      <c r="S114" s="15">
+        <f>SUM(F$2:F114)</f>
+        <v>627183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B115" s="4">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="68"/>
+        <v>0.125</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="62"/>
+        <v>94</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="63"/>
+        <v>106</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="65"/>
+        <v>198</v>
+      </c>
+      <c r="R115" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S115" s="15">
+        <f>SUM(F$2:F115)</f>
+        <v>627192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B116" s="4">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="68"/>
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="62"/>
+        <v>90</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="63"/>
+        <v>102</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="65"/>
+        <v>190</v>
+      </c>
+      <c r="R116" s="2">
+        <f t="shared" si="66"/>
+        <v>-4.0404040404040442E-2</v>
+      </c>
+      <c r="S116" s="15">
+        <f>SUM(F$2:F116)</f>
+        <v>627195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B117" s="4">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="62"/>
+        <v>83</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="63"/>
+        <v>93</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="65"/>
+        <v>174</v>
+      </c>
+      <c r="R117" s="2">
+        <f t="shared" si="66"/>
+        <v>-8.4210526315789513E-2</v>
+      </c>
+      <c r="S117" s="15">
+        <f>SUM(F$2:F117)</f>
+        <v>627195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B118" s="4">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="2" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="62"/>
+        <v>73</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="63"/>
+        <v>74</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="65"/>
+        <v>145</v>
+      </c>
+      <c r="R118" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="S118" s="15">
+        <f>SUM(F$2:F118)</f>
+        <v>627195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44738</v>
+      </c>
+      <c r="B119" s="4">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="G119" s="2" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="62"/>
+        <v>64</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="63"/>
+        <v>50</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="65"/>
+        <v>113</v>
+      </c>
+      <c r="R119" s="2">
+        <f t="shared" si="66"/>
+        <v>-0.22068965517241379</v>
+      </c>
+      <c r="S119" s="15">
+        <f>SUM(F$2:F119)</f>
+        <v>627199</v>
       </c>
     </row>
   </sheetData>
